--- a/data/hotels_by_city/Dallas/Dallas_shard_755.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_755.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="442">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1202 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r369307639-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>1176822</t>
+  </si>
+  <si>
+    <t>369307639</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>I stay because it's close to my corporate office...</t>
+  </si>
+  <si>
+    <t>I stay here because it is very close to my corporate office and I can get there in about 5 minutes. The rooms are ok. They are typically clean. This trip there was a musty smell in the room. Could be something to do with all the rain they've had. One thing I don't understand is why they have to take a photo copy of your drivers license and credit card when you check in. I always ask for it back when I check out, but that doesn't mean someone couldn't take the information and misuse it. Overall it's not a bad place to stay if you don't want a luxury hotel.  I've never felt unsafe there and I always stay by myself. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stay here because it is very close to my corporate office and I can get there in about 5 minutes. The rooms are ok. They are typically clean. This trip there was a musty smell in the room. Could be something to do with all the rain they've had. One thing I don't understand is why they have to take a photo copy of your drivers license and credit card when you check in. I always ask for it back when I check out, but that doesn't mean someone couldn't take the information and misuse it. Overall it's not a bad place to stay if you don't want a luxury hotel.  I've never felt unsafe there and I always stay by myself. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r367193462-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>367193462</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>DISGUSTING</t>
+  </si>
+  <si>
+    <t>Gross stains, dead bugs, ratty carpet, AC unit didn't work properly, sink was broken, hallways smelled heavily of smoke. DISGUSTING. We were booking a last minute work trip, and this was the only hotel with availability for our first night. Now i see why. No one who knows better would EVER stay here. I am surprised that Days Inn would allow this hotel to operate under their brand name. We were supposed to stay for 3 nights, and we checked out after 1.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r364852567-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>364852567</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This particular Days Inn &amp; Suites was amazing! Paul the manager was so nice. He made fresh coffee for me every single morning and made the whole stay so easy for me! Housekeeping was fast and came every day. Breakfast was great. Hotel is very clean and not noisy. I will definitely be staying here again next time I am in the Dallas area! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r348616356-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>348616356</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Poor quality hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is way out of date and needs serious renovations. The breakfast was not good, the faucet was loose in the room, our TV did not work, and there were cigarette burns in the sheets. I do not recommend this place. There was also mold in the bathroom and a ceiling falling down in the 3rd floor hallway. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r338690622-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>338690622</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>false advertisement</t>
+  </si>
+  <si>
+    <t>Photos will have you thinking your going somewhere nice. Should have turned around when I had to go down a dark alley to get a there.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r332466807-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>332466807</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t>Mrs.C. Sykora</t>
+  </si>
+  <si>
+    <t>The shower was horrible. Looked like mold on shower floor, no bottle water in machine the water to make coffee for coffee pot out of faucet horrible. Chair for handicap was filthy. Bedspreads has stains on them. Good thing we always bring our own stool for shower. Asked for rfund so we could leave n was refused.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r321330798-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>321330798</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Terrible Experience Filthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard to find entry to hotel, 1st rm spots on pillows, bedspread, nightstands. Room 2 bed appeared clean rest of room filthy. Purchased cleaning supplies. Cleaned room, tub pure filth, carpet so bad bare footed from shower feet were black. Several nites reception area smelt of strong urine and fan blowing stink. Key never worked ea. night I came in and took several times to desk. </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r318117027-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>318117027</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>DO NOT STAY THERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was nasty. Housekeeping did not have room ready. Bathroom floor was disgusting, bed sheets were dirty, pillow cases had black hair all on them, carpet smelt terrible, it was so disgusting I went and bought my fiancé and I some sheets, a cover and pillow cases from walmart. I should've listened when other reviews said do not stay there. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r317890022-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>317890022</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>WHERE DO YOU WANT ME TO BEGING, JUST DONT GO HERE, PLEASE GO SOMEWHERE ELSE</t>
+  </si>
+  <si>
+    <t>this is one of the worst hotel , i ever in my life stayed in.1. they call me 2 hours before checking asking am i still coming after they ran my card.2.when i checked in they up the price from what was the price i booked for.3. the room smelled like pine so4. the pool was just horrible, paint chip off (see pictures)5. the window was open and the screen was ready to fall out.6 the in phone didnt work ,so i had to use mines to call to get wi-fi code.7.the microwave was dirty8.the sink had cigarette burns.9.the fridge was losing paint.10.the paint on the walls was mismatch in spots11.the towels was dirty12. NO TOILET PAPER IN THE BATHROOM, TOLD ME TO USE THE BOX OF TISSUE IN THE BATHROOM!!!!13. THE TOILET RAN EVERY 30 SECONDS THE ONLY REASON I STAYED WAS BECAUSE ALL THE HOTELS WAS BOOKED IN THE AREA FOR A TOURNAMENT.MoreShow less</t>
+  </si>
+  <si>
+    <t>this is one of the worst hotel , i ever in my life stayed in.1. they call me 2 hours before checking asking am i still coming after they ran my card.2.when i checked in they up the price from what was the price i booked for.3. the room smelled like pine so4. the pool was just horrible, paint chip off (see pictures)5. the window was open and the screen was ready to fall out.6 the in phone didnt work ,so i had to use mines to call to get wi-fi code.7.the microwave was dirty8.the sink had cigarette burns.9.the fridge was losing paint.10.the paint on the walls was mismatch in spots11.the towels was dirty12. NO TOILET PAPER IN THE BATHROOM, TOLD ME TO USE THE BOX OF TISSUE IN THE BATHROOM!!!!13. THE TOILET RAN EVERY 30 SECONDS THE ONLY REASON I STAYED WAS BECAUSE ALL THE HOTELS WAS BOOKED IN THE AREA FOR A TOURNAMENT.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r316411176-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>316411176</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Our stay was terrible. Dirty. Used booking.com and the...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our stay was terrible. Dirty. Used booking.com and the person working there was upset with us because he said booking.com doesn't work?! How were we supposed to know?! It was not clean, not friendly staff. Terrible </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r314905039-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>314905039</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Horrible hotel management!</t>
+  </si>
+  <si>
+    <t>Hotel is filthy and manager is not capable of running hotel anywhere but into the ground.  Room was in poor condition and extremely dirty. Iron in room didn't work. Dryer sheets were on top of air conditioning unit to help with the smell in room. Bathroom fixtures (sink, toilet) unclean. Carpet in room not vacuumed and soiled. When I checked into room I had to witness manager yelling and arguing with other guests because their room door didn't lock.  I mentioned the rooms condition to this same manager (Paul he said his name was) and he refused to listen and argued with me in the same manner.  Wyndham area managers need to do a site inspection on this property. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Hotel is filthy and manager is not capable of running hotel anywhere but into the ground.  Room was in poor condition and extremely dirty. Iron in room didn't work. Dryer sheets were on top of air conditioning unit to help with the smell in room. Bathroom fixtures (sink, toilet) unclean. Carpet in room not vacuumed and soiled. When I checked into room I had to witness manager yelling and arguing with other guests because their room door didn't lock.  I mentioned the rooms condition to this same manager (Paul he said his name was) and he refused to listen and argued with me in the same manner.  Wyndham area managers need to do a site inspection on this property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r314880073-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>314880073</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r293587973-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>293587973</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>This was the worst hotel we have ever stayed at.  It was dirty and after 2 hours we checked out.  We did ask for a refund but they would not refund the room.  So cut our trip early and went back to Houston.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r288154710-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>288154710</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r287754214-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>287754214</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Bad Room and Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There were Drity Underwear in Drawer, used and order ToothBrush in roon, Coffee machine have smooth and mold. if like i can provide pictures of them. No an single Ice machine is working.  booked room for 2 night checked in and come at night at 12:30 AM and check at 4 and went to La Cunta Inn and paid them 150 a night cas it was bad at days Inn bad for serivec and bad for Health. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r278401507-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>278401507</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Rude and disrespectful owner</t>
+  </si>
+  <si>
+    <t>Booked a hotel room for one night for a weekend baseball tournament. Checked in in the afternoon and going back to play one last game came back to hotel to find that our key cards did not work. When we went to the front desk to let them know we found out they had given our room to someone else and checked us out. And on top of that they were also having a problem with another guest, they could not locate their name after confirming earlier in the day that had a reservation and heard them proceed to call that guest trash. After hearing this told them we would be leaving and would like a refund and the owner told us no the money was now his and there would be no refund. He talked to us very disrespectfully. Would NOT recommend this hotel to anyone. And would not give any rating except that it is required.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Booked a hotel room for one night for a weekend baseball tournament. Checked in in the afternoon and going back to play one last game came back to hotel to find that our key cards did not work. When we went to the front desk to let them know we found out they had given our room to someone else and checked us out. And on top of that they were also having a problem with another guest, they could not locate their name after confirming earlier in the day that had a reservation and heard them proceed to call that guest trash. After hearing this told them we would be leaving and would like a refund and the owner told us no the money was now his and there would be no refund. He talked to us very disrespectfully. Would NOT recommend this hotel to anyone. And would not give any rating except that it is required.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r277378424-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>277378424</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Incompetent Desk workers.</t>
+  </si>
+  <si>
+    <t>I booked a smoking room and when I took the luggage up to the room I notice it had a no smoking emblem...no problem...all we did was set our luggage inside the door and as we were leaving I mentioned to the desk clerk about the no smoking sign and he said it was ok to smoke in that room so we left and went to the Jimmy Buffet concert. Upon returning @ midnight I asked the new clerk for an ashtray.....that's when it all started....he had to call this person then that person...no ashtray no way...told us the day clerk made a mistake. Anyhow we were switched to a smoking room (after he made 45mins of phone calls) and guess what? No ashtray! Come morning I really like a cup of coffee and there's the coffee maker...cool...coffee pot has no handle...It's the simple things. Be aware there is no entrance from the highway. You have to enter a shared drive with a car dealership and the motel is behind that. Just a little paper sign out by the road. Good Luck.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I booked a smoking room and when I took the luggage up to the room I notice it had a no smoking emblem...no problem...all we did was set our luggage inside the door and as we were leaving I mentioned to the desk clerk about the no smoking sign and he said it was ok to smoke in that room so we left and went to the Jimmy Buffet concert. Upon returning @ midnight I asked the new clerk for an ashtray.....that's when it all started....he had to call this person then that person...no ashtray no way...told us the day clerk made a mistake. Anyhow we were switched to a smoking room (after he made 45mins of phone calls) and guess what? No ashtray! Come morning I really like a cup of coffee and there's the coffee maker...cool...coffee pot has no handle...It's the simple things. Be aware there is no entrance from the highway. You have to enter a shared drive with a car dealership and the motel is behind that. Just a little paper sign out by the road. Good Luck.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r275158825-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>275158825</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r270360263-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>270360263</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r270338126-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>270338126</t>
+  </si>
+  <si>
+    <t>The room had a bad smell.  My towels were dirty or stained...</t>
+  </si>
+  <si>
+    <t>The room had a bad smell.  My towels were dirty or stained so I had to request new towels.  The tub spout fell off when I turned on the shower.  The internet was down in the 'business center' but the clerk was able to print my boarding pass for me. My room key stopped working twice so I had to go back to the front and have them reset it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r265019941-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>265019941</t>
+  </si>
+  <si>
+    <t>04/11/2015</t>
+  </si>
+  <si>
+    <t>Don't Stay at this Days Inn</t>
+  </si>
+  <si>
+    <t>The property was unclean in every area: bathrooms filthy, carpet stained. After seeing the room, my wife and I decided to leave, but they refused to return our money. We left anyway. We could not have slept in such filth.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r260236840-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>260236840</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>unclean</t>
+  </si>
+  <si>
+    <t>Carpets very dirty, sheets dirty, iron boards are unsafe, unclean bathrooms (very visible). The day bed by the window is extremely dirty. The breakfast had spoiled cream cheese and butter. Bagels old. Nasty!</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r258832564-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>258832564</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Very Miserable stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location is about all I can say for this hotel.When arrived no TV service which understood due to storm that came in.  Can hear every noise in hotel  when someone turns on water can hear a loud drip inside the wall that went on forever. Worst sleep ever decided to go try complimentary breakfast wow what a mistake milk hot and oatmeal looked 5 days old.  I will be back in the area but will not stay at this Days Inn again.  Needs updating to rooms and when we got there they had to come dust due to 2" thick. Very Miserable stay!!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r258293543-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>258293543</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>The overall appearance of the room was shabby and needed to...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The overall appearance of the room was shabby and needed to be updated.  There was a stain on the comfortor, bugs or ashes in the bathtub, and the carpet was in dire need of cleaning or replacing.However, the front desk clerk was courteous and helpful. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r251194188-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>251194188</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r249505954-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>249505954</t>
+  </si>
+  <si>
+    <t>01/15/2015</t>
+  </si>
+  <si>
+    <t>BESt DAYS INN tHAt I HAVE EVER StAYED At</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this by far is the best days inn hotel I have ever stayed at the rock they are so friendly thoughtI was at my home instead of a hotel espeialy SUNNY and another young clerk that checked me into the hotel!!!!! the hotel is very clean as well as the rooms the rooms are very big you have pleny of room to move around the breakfast is very nice not to mention it's very quite I would bring my whole family here no worries any shady business !!!! StAY HERE IF YOU WANt YOUR MONEY WORtH!!!!♥_♥♥_♥♥_♥♥_♥♥_♥    </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r249494296-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>249494296</t>
+  </si>
+  <si>
+    <t>Worst Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I booked this hotel online and specifically asked for a non smoking room.  The front desk personnel that I would be charged an additional $10 for that feature.  Check-out is not until 11:00a... They came knocking at my door at 9:00a asking if I was extending my stay.. They called and knocked until it was time for check-out.  I will never stay here again!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r248171292-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>248171292</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>hotel experience</t>
+  </si>
+  <si>
+    <t>nice ,clean, excellent customer service, free wifi, nice brakfast., No smell in rooms, showe nice well equiped, bed sheet nice. lights all good. dining room nice, I would like to stay there for next trip. This is my second stay in this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r245299855-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>245299855</t>
+  </si>
+  <si>
+    <t>12/20/2014</t>
+  </si>
+  <si>
+    <t>Decent value. Not spectacular.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I got the room for a very good price. I was expecting a fair accommodations and that's what they were. The day i got there the room was not so clean but later i realized that the dirt was actually just sawdust from when they installed the new flat screen TV. By the next day it was clean. They were friendly but they didn't bring me a working fridge even though i asked them 3 times as the one in my room was broken. They were probably busy.  </t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r244799936-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>244799936</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r223923307-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>223923307</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r216953636-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>216953636</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Beware of Hotel</t>
+  </si>
+  <si>
+    <t>The carpet was not vacuumed and it smelled. The furnishings were dirty from previous stay and were never wiped. Next morning I complained to attendant to our room cleaned and when we came back it everything remained the same.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r214354101-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>214354101</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Double Charging</t>
+  </si>
+  <si>
+    <t>Do not use a credit card to make a reservation at this hotel.  A reservation was made for my daughter at this hotel with my credit card. She showed her id and gave her credit card when she checked in.  They charged her c/c and mine.  They will not reverse the charge on my card even though I was not there.  Days Inn and my requested a copy of the c/c receipt used. This hotel does not give c/c receipts and she doesn't remember which one she used.  it is wrong for them to charge both credit cards, one at check in and the other at check out.  Most people may not even pay attention that they are being double billed.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Do not use a credit card to make a reservation at this hotel.  A reservation was made for my daughter at this hotel with my credit card. She showed her id and gave her credit card when she checked in.  They charged her c/c and mine.  They will not reverse the charge on my card even though I was not there.  Days Inn and my requested a copy of the c/c receipt used. This hotel does not give c/c receipts and she doesn't remember which one she used.  it is wrong for them to charge both credit cards, one at check in and the other at check out.  Most people may not even pay attention that they are being double billed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r211882521-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>211882521</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Dirt, Dirt, Everywhere</t>
+  </si>
+  <si>
+    <t>I recognize that this is not the Ritz, but a vacuum cleaner should be run around every now and then. There was waste on the toilet seat and a used towel and strange underwear behind the bathroom door. The bathroom was obviously not cleaned after the last "guest" left. It was disgusting!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r211146746-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>211146746</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r210119561-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>210119561</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r207601434-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>207601434</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>How Something to Small Can Make a Big Difference!</t>
+  </si>
+  <si>
+    <t>I would like to start off by complimenting you on your cleanliness and respectful staff and Great prices!. We did enjoy our stay and it was very spacious and clean, which is what I really loved about that particular room. There was only one issues that I had, which was the Jacuzzi. It was too small. I mean Really small. As a hotel/motel owner I'm sure you are aware that when renting a Jacuzzi suite, most likely there will be at least two people in that suite and would like to enjoy and relax in that Jacuzzi. Well, unfortunately that is not the case here. All of your Jacuzzi tubs barely fit one person in them. I don't want to have to wrestle for foot space in my Jacuzzi tub with my mate. We did have a great time, the room itself was very spacious and had great lighting as well, but you guyz need bigger Jacuzzi tubs or What's The Point?....MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I would like to start off by complimenting you on your cleanliness and respectful staff and Great prices!. We did enjoy our stay and it was very spacious and clean, which is what I really loved about that particular room. There was only one issues that I had, which was the Jacuzzi. It was too small. I mean Really small. As a hotel/motel owner I'm sure you are aware that when renting a Jacuzzi suite, most likely there will be at least two people in that suite and would like to enjoy and relax in that Jacuzzi. Well, unfortunately that is not the case here. All of your Jacuzzi tubs barely fit one person in them. I don't want to have to wrestle for foot space in my Jacuzzi tub with my mate. We did have a great time, the room itself was very spacious and had great lighting as well, but you guyz need bigger Jacuzzi tubs or What's The Point?....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r202341509-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>202341509</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r199099905-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>199099905</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>The only problem with this hotel is there is only one entry and exit. If you miss your turn it's a pain in the butt to get back!! Especially during rush hour.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r191637769-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>191637769</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r186457984-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>186457984</t>
+  </si>
+  <si>
+    <t>12/01/2013</t>
+  </si>
+  <si>
+    <t>If I wanted to stay in the slums of Calcutta I'd have flown to India.</t>
+  </si>
+  <si>
+    <t>Dirty, Smelly, and Nasty.  There was not anything redeeming about this hotel. The place was dirty, tattered and the breakfast food was old and stale. The desk clerks varied each day with an acute lack of English skills.  How can Days Inn allow these owners to fly their flag !!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r185790968-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>185790968</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>Disgusting Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This location is terrible.  I was given a room that had an serioud odor, running water in tub with bugs </t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r182742572-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>182742572</t>
+  </si>
+  <si>
+    <t>10/28/2013</t>
+  </si>
+  <si>
+    <t>Not what I expected</t>
+  </si>
+  <si>
+    <t>Two weeks ago I stayed at the Days Inn in Canton, Texas and had a wonderful experience. Why not stay at a Days Inn during a Dallas trip I asked. Bad idea. The TV was terrible, the front desk service was slow, and the shower pressure was so low I had to stand directly under the shower head. To top it off, the bed was not very comfortable Not pleased with my stay.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r181185687-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>181185687</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r181153604-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>181153604</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>I just visited this Hotel this past weekend and it was horrible. I made my reservation through expedia and that was my first  mistake. I reserved the room for 3 adults and when I arrived they said I only reserved for 2 adults and had to pay an extra ten dollars. Then they wanted to copy my debit card and DL. The staff was rude and they attempted to rush me from the front desk. The room was nothing like the pictures. The towels were dengy (thankfully I always bring my own) the bed sheets were they same. I slept on top of the cover. The sink, toilet, and tub were not clean. (Thankfully I carry lysol spray and wipes) The toilet itself moved! It was not firmly installed. This place needs some major work ASAP!!! When we checked out the lady tried to charge me $10 again!!! Very disorganized and not clean! I would not recommend this to anyone!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I just visited this Hotel this past weekend and it was horrible. I made my reservation through expedia and that was my first  mistake. I reserved the room for 3 adults and when I arrived they said I only reserved for 2 adults and had to pay an extra ten dollars. Then they wanted to copy my debit card and DL. The staff was rude and they attempted to rush me from the front desk. The room was nothing like the pictures. The towels were dengy (thankfully I always bring my own) the bed sheets were they same. I slept on top of the cover. The sink, toilet, and tub were not clean. (Thankfully I carry lysol spray and wipes) The toilet itself moved! It was not firmly installed. This place needs some major work ASAP!!! When we checked out the lady tried to charge me $10 again!!! Very disorganized and not clean! I would not recommend this to anyone!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r175342136-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>175342136</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>Difficult to find, as it sits behind a car dealer. Suspect clientele, woman in front of us walked in from main road and paid cash for one night. Gentleman in hallway to our room asked if he could bum a smoke. Friendly gentleman on the elevator, but I'm pretty sure he wasn't sober. Smoking rooms in center of corridor, non-smoking at ends, so you have to walk past the smoking rooms to get to non-smoking. Our room had two queen beds. One bed had sheets that were stained with what appeared to be blood and grease that had been laundered in. The box spring on the other bed had stains on the side of it that appeared to be bodily fluids of some sort. The towels might just as well have been paper towels. Water pressure in shower was nonexistent, couldn't rinse the shampoo out of our hair thoroughly. Packets (like a ketchup packet at McD's) of shampoo.  We were supposed to be there for a 3 night stay, checked out after the 1st night and found better accommodations elsewhere.The clerk at check-in made a photo copy of my drivers license and my credit card. I've been checking with my cc company to make sure no fraudulent use since.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Difficult to find, as it sits behind a car dealer. Suspect clientele, woman in front of us walked in from main road and paid cash for one night. Gentleman in hallway to our room asked if he could bum a smoke. Friendly gentleman on the elevator, but I'm pretty sure he wasn't sober. Smoking rooms in center of corridor, non-smoking at ends, so you have to walk past the smoking rooms to get to non-smoking. Our room had two queen beds. One bed had sheets that were stained with what appeared to be blood and grease that had been laundered in. The box spring on the other bed had stains on the side of it that appeared to be bodily fluids of some sort. The towels might just as well have been paper towels. Water pressure in shower was nonexistent, couldn't rinse the shampoo out of our hair thoroughly. Packets (like a ketchup packet at McD's) of shampoo.  We were supposed to be there for a 3 night stay, checked out after the 1st night and found better accommodations elsewhere.The clerk at check-in made a photo copy of my drivers license and my credit card. I've been checking with my cc company to make sure no fraudulent use since.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r173563509-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>173563509</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>Wonderful Staff!!</t>
+  </si>
+  <si>
+    <t>Veena &amp; her husband (Max?) were friendly, helpful and keep the property very clean.  Also, the maid did whatever we needed.  We sold a home and werethere for a month waiting to get in our new house.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r172112193-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>172112193</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>double charged for sticky floors</t>
+  </si>
+  <si>
+    <t>the potential is there. a couple of nice, but not too helpful folks at the desk until checkout when I noticed they had the wrong reservation number on my bill. I had showed the Priceline confirmation at check in and was assured the hotel would not charge me twice, despite the different reservation numbers. The next day the charges showed up pending. I called the Days Inn and was told they will not refund my money, despite being responsible for the error. I am still waiting to hear back from Priceline now that both charges have gone through. Won't stay here ever again. I am guessing the billing errors make up a good portion of their revenue.MoreShow less</t>
+  </si>
+  <si>
+    <t>123Sonny, Manager at Sunstone Inn, responded to this reviewResponded August 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2013</t>
+  </si>
+  <si>
+    <t>the potential is there. a couple of nice, but not too helpful folks at the desk until checkout when I noticed they had the wrong reservation number on my bill. I had showed the Priceline confirmation at check in and was assured the hotel would not charge me twice, despite the different reservation numbers. The next day the charges showed up pending. I called the Days Inn and was told they will not refund my money, despite being responsible for the error. I am still waiting to hear back from Priceline now that both charges have gone through. Won't stay here ever again. I am guessing the billing errors make up a good portion of their revenue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r166670993-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>166670993</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>be aware the pool is not safe-the drain does not have a...</t>
+  </si>
+  <si>
+    <t>be aware the pool is not safe-the drain does not have a cover on the bottom of the pool and the paint is peeling off the bottom of the pool-this is not a safe pool for anyone!!!!!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r166446256-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>166446256</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>123Sonny, Front Office Manager at Sunstone Inn, responded to this reviewResponded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r163967958-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>163967958</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>Business trip stop over in Dallas. The hotel entrance was hard to find as it only has a small sign on the ground and it is behind a large building at the front. The overall condition of the hotel is really good and looks relatively new. The breakfast area and reception area was very clean and bright though the breakfast selection was not that good. The room was very clean and the staff that I did come into contact with were all friendly though their understanding of English was a little frustrating. Overall it was a good experience and I would stay there again.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r160214682-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>160214682</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>123Sonny, Front Office Manager at Sunstone Inn, responded to this reviewResponded May 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r160003832-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>160003832</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>NEVER again</t>
+  </si>
+  <si>
+    <t>We checked in and the room was nice enough and pretty clean. We checked in and immediately got ready to go to bed.The next morning the kids and my boyfriend got ready to go to breakfast and I stayed behind to get ready. As he was leaving my boyfriend checked to make sure the lock had caught and it did not. After several attempts to lock the door, it would not work. I went downstairs and demanded a new room. After several condescending comments, the person at the desk assigned another room. This also required me having to insist that this be done. We loaded up all of stuff and went to the next room. This time we check the door and the same problem occurred. And then the desk guy had to come check for himself, like that is something anyone would make up. So after proving his rudeness and his complete ineptness at providing decent customer service, he moved us to yet another room. This one worked but for the toilet sticking and requiring my boyfriend to take the cover off and jiggle the handle. We decided to just suck it up and deal with it. I don't believe staying at a hotel should require anyone to "suck it up" because the staff makes it more of a hassle than just dealing with the problem yourself. Of course we did not feel completely safe while there. What a...We checked in and the room was nice enough and pretty clean. We checked in and immediately got ready to go to bed.The next morning the kids and my boyfriend got ready to go to breakfast and I stayed behind to get ready. As he was leaving my boyfriend checked to make sure the lock had caught and it did not. After several attempts to lock the door, it would not work. I went downstairs and demanded a new room. After several condescending comments, the person at the desk assigned another room. This also required me having to insist that this be done. We loaded up all of stuff and went to the next room. This time we check the door and the same problem occurred. And then the desk guy had to come check for himself, like that is something anyone would make up. So after proving his rudeness and his complete ineptness at providing decent customer service, he moved us to yet another room. This one worked but for the toilet sticking and requiring my boyfriend to take the cover off and jiggle the handle. We decided to just suck it up and deal with it. I don't believe staying at a hotel should require anyone to "suck it up" because the staff makes it more of a hassle than just dealing with the problem yourself. Of course we did not feel completely safe while there. What a huge hassle and disappointment. The Wyndham brand is really low on my new list of places I will even consider staying at in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t>We checked in and the room was nice enough and pretty clean. We checked in and immediately got ready to go to bed.The next morning the kids and my boyfriend got ready to go to breakfast and I stayed behind to get ready. As he was leaving my boyfriend checked to make sure the lock had caught and it did not. After several attempts to lock the door, it would not work. I went downstairs and demanded a new room. After several condescending comments, the person at the desk assigned another room. This also required me having to insist that this be done. We loaded up all of stuff and went to the next room. This time we check the door and the same problem occurred. And then the desk guy had to come check for himself, like that is something anyone would make up. So after proving his rudeness and his complete ineptness at providing decent customer service, he moved us to yet another room. This one worked but for the toilet sticking and requiring my boyfriend to take the cover off and jiggle the handle. We decided to just suck it up and deal with it. I don't believe staying at a hotel should require anyone to "suck it up" because the staff makes it more of a hassle than just dealing with the problem yourself. Of course we did not feel completely safe while there. What a...We checked in and the room was nice enough and pretty clean. We checked in and immediately got ready to go to bed.The next morning the kids and my boyfriend got ready to go to breakfast and I stayed behind to get ready. As he was leaving my boyfriend checked to make sure the lock had caught and it did not. After several attempts to lock the door, it would not work. I went downstairs and demanded a new room. After several condescending comments, the person at the desk assigned another room. This also required me having to insist that this be done. We loaded up all of stuff and went to the next room. This time we check the door and the same problem occurred. And then the desk guy had to come check for himself, like that is something anyone would make up. So after proving his rudeness and his complete ineptness at providing decent customer service, he moved us to yet another room. This one worked but for the toilet sticking and requiring my boyfriend to take the cover off and jiggle the handle. We decided to just suck it up and deal with it. I don't believe staying at a hotel should require anyone to "suck it up" because the staff makes it more of a hassle than just dealing with the problem yourself. Of course we did not feel completely safe while there. What a huge hassle and disappointment. The Wyndham brand is really low on my new list of places I will even consider staying at in the future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r157443805-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>157443805</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>Anywhere is better than here</t>
+  </si>
+  <si>
+    <t>I had booked at another hotel and then changed to this one based on closeness to my grandmother's rehab center. This place still had a pool although outdoors, but my kids don't mind. Upon arrival we were greeted and assigned our room. They insisted on having a copy of my Drivers Licence and CC. I was told this was because the owner wanted to know who was in the room (they reluctantly gave it back on checkout). The room looked clean, but had a funny smell that we contributed to the remodeling they were doing. The bathtub had dead bugs in it, the rest of the bathroom looked dirty the floor was not mopped and the refrigerator had mold. Again maybe because the room had been unoccupied for an extended period of time. Why am i so positive? Then my son went to lay his head on the pillow only to have a spider run past his ear. I was done. I went to the front desk and asked for a different room. I was told they could move my family but they would charge us for an additional room. After a lot of discussion I suggested they just clean the room and we would keep it. The lady at the front desk insisted we move to a different room, "how fast do you think you can be out of the room? Just don't tell anyone. If anyone asks you...I had booked at another hotel and then changed to this one based on closeness to my grandmother's rehab center. This place still had a pool although outdoors, but my kids don't mind. Upon arrival we were greeted and assigned our room. They insisted on having a copy of my Drivers Licence and CC. I was told this was because the owner wanted to know who was in the room (they reluctantly gave it back on checkout). The room looked clean, but had a funny smell that we contributed to the remodeling they were doing. The bathtub had dead bugs in it, the rest of the bathroom looked dirty the floor was not mopped and the refrigerator had mold. Again maybe because the room had been unoccupied for an extended period of time. Why am i so positive? Then my son went to lay his head on the pillow only to have a spider run past his ear. I was done. I went to the front desk and asked for a different room. I was told they could move my family but they would charge us for an additional room. After a lot of discussion I suggested they just clean the room and we would keep it. The lady at the front desk insisted we move to a different room, "how fast do you think you can be out of the room? Just don't tell anyone. If anyone asks you have only ever been in the second room." She showed me 3 different rooms on the second floor. We took the third. My 3 year old went to use the bathroom and the toilet wouldn't flush. I opened the tank and sure enough the flapper puller was broken. I went back down and talked to the front desk lady who told me that because we had touched something in the room they would have to charge us another room fee. Again I refused reminding her the toilet was BROKEN!! By this time the housekeeper had left the original room and were we're again told not to tell anyone we were in the second room and moved back to the first. It was cleaner and the 3 things I asked them to fix we're fixed, still mold on ceiling and a squished bug on the bathroom. After an hour we were finally checked into the room we would be staying in. We did not use the outdoor pool due to the weather, but it was in poor repair and I would not have had my kids in it anyway. Breakfast? Not really. The donuts were so dry they must have been AT LEAST a day old and left uncovered. They chipped when I tapped the top and my 7 and 9 year olds would not even eat the ones they took. I had a cup of milk and my husband took an apple for the road. Never again! MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I had booked at another hotel and then changed to this one based on closeness to my grandmother's rehab center. This place still had a pool although outdoors, but my kids don't mind. Upon arrival we were greeted and assigned our room. They insisted on having a copy of my Drivers Licence and CC. I was told this was because the owner wanted to know who was in the room (they reluctantly gave it back on checkout). The room looked clean, but had a funny smell that we contributed to the remodeling they were doing. The bathtub had dead bugs in it, the rest of the bathroom looked dirty the floor was not mopped and the refrigerator had mold. Again maybe because the room had been unoccupied for an extended period of time. Why am i so positive? Then my son went to lay his head on the pillow only to have a spider run past his ear. I was done. I went to the front desk and asked for a different room. I was told they could move my family but they would charge us for an additional room. After a lot of discussion I suggested they just clean the room and we would keep it. The lady at the front desk insisted we move to a different room, "how fast do you think you can be out of the room? Just don't tell anyone. If anyone asks you...I had booked at another hotel and then changed to this one based on closeness to my grandmother's rehab center. This place still had a pool although outdoors, but my kids don't mind. Upon arrival we were greeted and assigned our room. They insisted on having a copy of my Drivers Licence and CC. I was told this was because the owner wanted to know who was in the room (they reluctantly gave it back on checkout). The room looked clean, but had a funny smell that we contributed to the remodeling they were doing. The bathtub had dead bugs in it, the rest of the bathroom looked dirty the floor was not mopped and the refrigerator had mold. Again maybe because the room had been unoccupied for an extended period of time. Why am i so positive? Then my son went to lay his head on the pillow only to have a spider run past his ear. I was done. I went to the front desk and asked for a different room. I was told they could move my family but they would charge us for an additional room. After a lot of discussion I suggested they just clean the room and we would keep it. The lady at the front desk insisted we move to a different room, "how fast do you think you can be out of the room? Just don't tell anyone. If anyone asks you have only ever been in the second room." She showed me 3 different rooms on the second floor. We took the third. My 3 year old went to use the bathroom and the toilet wouldn't flush. I opened the tank and sure enough the flapper puller was broken. I went back down and talked to the front desk lady who told me that because we had touched something in the room they would have to charge us another room fee. Again I refused reminding her the toilet was BROKEN!! By this time the housekeeper had left the original room and were we're again told not to tell anyone we were in the second room and moved back to the first. It was cleaner and the 3 things I asked them to fix we're fixed, still mold on ceiling and a squished bug on the bathroom. After an hour we were finally checked into the room we would be staying in. We did not use the outdoor pool due to the weather, but it was in poor repair and I would not have had my kids in it anyway. Breakfast? Not really. The donuts were so dry they must have been AT LEAST a day old and left uncovered. They chipped when I tapped the top and my 7 and 9 year olds would not even eat the ones they took. I had a cup of milk and my husband took an apple for the road. Never again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r154332947-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>154332947</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>Dear husband and I travel frequently to Plano, Tx to do our shopping. The drive is 3 hours one way so we sleep over in Plano. This time we decided we would wing it and find a hotel when we got there. We saw the sign for Days Inn from Preston Rd and decided we would pull in and check room rates and availability. After driving in circles a few times trying to find the right road to get to the hotel we finally arrived. The man at the front desk was very nice and gave us a suite with a queen size bed for 59.99... The price was great, now to see the room. The room was large and very nice for the price. The bathroom was clean, the bed was ok---could have used a few more pillows...The carpets were clean, the internet was great, the channels on the television were fine. Overall---if you are looking for a inexpensive place to stay---this is the place. Clean, friendly and a great location! MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Dear husband and I travel frequently to Plano, Tx to do our shopping. The drive is 3 hours one way so we sleep over in Plano. This time we decided we would wing it and find a hotel when we got there. We saw the sign for Days Inn from Preston Rd and decided we would pull in and check room rates and availability. After driving in circles a few times trying to find the right road to get to the hotel we finally arrived. The man at the front desk was very nice and gave us a suite with a queen size bed for 59.99... The price was great, now to see the room. The room was large and very nice for the price. The bathroom was clean, the bed was ok---could have used a few more pillows...The carpets were clean, the internet was great, the channels on the television were fine. Overall---if you are looking for a inexpensive place to stay---this is the place. Clean, friendly and a great location! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r152811962-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>152811962</t>
+  </si>
+  <si>
+    <t>02/22/2013</t>
+  </si>
+  <si>
+    <t>Horrible treatment!!</t>
+  </si>
+  <si>
+    <t>OMG...this was a terrible humiliating experience! 1st, the hotel is very hard to find located behind some buildings...drove in circles looking for entrance. We were there on business for 5 nights. The flu was going around something fierce in the Dallas area, which of course my husband and I caught. We did not leave our room for over 3 days..company was paying for room. Here's the worst part, after being there and finally stopped hallucinating from fever, our company forgot to make a payment. I understand there point that we had to leave if they couldn't reach the company...however the minute my husband left to go buy medicine, management pounced and locked me out of the room in the a.m. before checkout time. I couldn't retrieve my purse, phone, not even my shoes. Barefoot in pajamas and sick sitting in lobby for all to view. Poster child of sickness. It was humiliating. I was so thankful when my husband pulled into the lot and I ran for cover to our car and let him deal with the front desk manager and gather are belongings. Also let them know our room needed to be fumigated before allowing another guest in it. I was horrified when I saw they cleaned in about 15 minutes and checked in a poor unsuspecting guest. Never ever again. Oh, and the company spends quite a bit of money there and they acted as if they had...OMG...this was a terrible humiliating experience! 1st, the hotel is very hard to find located behind some buildings...drove in circles looking for entrance. We were there on business for 5 nights. The flu was going around something fierce in the Dallas area, which of course my husband and I caught. We did not leave our room for over 3 days..company was paying for room. Here's the worst part, after being there and finally stopped hallucinating from fever, our company forgot to make a payment. I understand there point that we had to leave if they couldn't reach the company...however the minute my husband left to go buy medicine, management pounced and locked me out of the room in the a.m. before checkout time. I couldn't retrieve my purse, phone, not even my shoes. Barefoot in pajamas and sick sitting in lobby for all to view. Poster child of sickness. It was humiliating. I was so thankful when my husband pulled into the lot and I ran for cover to our car and let him deal with the front desk manager and gather are belongings. Also let them know our room needed to be fumigated before allowing another guest in it. I was horrified when I saw they cleaned in about 15 minutes and checked in a poor unsuspecting guest. Never ever again. Oh, and the company spends quite a bit of money there and they acted as if they had no idea who they were. Customer service was rank and ruined what might have been a decent place. One more thing the pipes were embedded by tree roots so it/water had a funky smell and I don't believe you could open the windows.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>123Sonny, Manager at Sunstone Inn, responded to this reviewResponded March 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2013</t>
+  </si>
+  <si>
+    <t>OMG...this was a terrible humiliating experience! 1st, the hotel is very hard to find located behind some buildings...drove in circles looking for entrance. We were there on business for 5 nights. The flu was going around something fierce in the Dallas area, which of course my husband and I caught. We did not leave our room for over 3 days..company was paying for room. Here's the worst part, after being there and finally stopped hallucinating from fever, our company forgot to make a payment. I understand there point that we had to leave if they couldn't reach the company...however the minute my husband left to go buy medicine, management pounced and locked me out of the room in the a.m. before checkout time. I couldn't retrieve my purse, phone, not even my shoes. Barefoot in pajamas and sick sitting in lobby for all to view. Poster child of sickness. It was humiliating. I was so thankful when my husband pulled into the lot and I ran for cover to our car and let him deal with the front desk manager and gather are belongings. Also let them know our room needed to be fumigated before allowing another guest in it. I was horrified when I saw they cleaned in about 15 minutes and checked in a poor unsuspecting guest. Never ever again. Oh, and the company spends quite a bit of money there and they acted as if they had...OMG...this was a terrible humiliating experience! 1st, the hotel is very hard to find located behind some buildings...drove in circles looking for entrance. We were there on business for 5 nights. The flu was going around something fierce in the Dallas area, which of course my husband and I caught. We did not leave our room for over 3 days..company was paying for room. Here's the worst part, after being there and finally stopped hallucinating from fever, our company forgot to make a payment. I understand there point that we had to leave if they couldn't reach the company...however the minute my husband left to go buy medicine, management pounced and locked me out of the room in the a.m. before checkout time. I couldn't retrieve my purse, phone, not even my shoes. Barefoot in pajamas and sick sitting in lobby for all to view. Poster child of sickness. It was humiliating. I was so thankful when my husband pulled into the lot and I ran for cover to our car and let him deal with the front desk manager and gather are belongings. Also let them know our room needed to be fumigated before allowing another guest in it. I was horrified when I saw they cleaned in about 15 minutes and checked in a poor unsuspecting guest. Never ever again. Oh, and the company spends quite a bit of money there and they acted as if they had no idea who they were. Customer service was rank and ruined what might have been a decent place. One more thing the pipes were embedded by tree roots so it/water had a funky smell and I don't believe you could open the windows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r152787155-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>152787155</t>
+  </si>
+  <si>
+    <t>Location &amp; Breakfast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not the most easy hotel to get in. Worst breakfast ever, the cream chesse was watery, donuts look old. </t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r150301907-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>150301907</t>
+  </si>
+  <si>
+    <t>01/22/2013</t>
+  </si>
+  <si>
+    <t>Liked everything</t>
+  </si>
+  <si>
+    <t>The hotel was clean and the staff were friendly and helpful. Only problem was locating it, since it's behind a car dealership and has no signage on the road where the driveway is due to some city rule. Once that's resolved, it's a nice place at which we'll likely stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r149837909-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>149837909</t>
+  </si>
+  <si>
+    <t>01/16/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r149451292-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>149451292</t>
+  </si>
+  <si>
+    <t>01/11/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r145697238-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>145697238</t>
+  </si>
+  <si>
+    <t>11/18/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r144882365-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>144882365</t>
+  </si>
+  <si>
+    <t>11/07/2012</t>
+  </si>
+  <si>
+    <t>Great Place At A Great Price</t>
+  </si>
+  <si>
+    <t>I booked this stay online at the Days Inn website. The price advertised was the price I paid. No Hidden Expenses, No Gimmicks. Room was clean, Bathooom was clean and my only complaint was that I couldn't get all the local channels on the "old Tv" to come in. However, I would stay here again based on the location and friendly staff I encountered during my stay. Not bad to two nights in Dallas for under $100.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r143859745-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>143859745</t>
+  </si>
+  <si>
+    <t>10/27/2012</t>
+  </si>
+  <si>
+    <t>Awfully dirty and unkept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms dirty, towels in a condition that I didn't feel like wiping my face with them. Poor breakfast choice and extremely unfriendly management. Front desk staff person (unfortunately didn't remember her name) is the only one friendly and helpful staff member. Horrible experience that I hope I will never have to go through again. </t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r142427913-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>142427913</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>It was ok</t>
+  </si>
+  <si>
+    <t>This hotel was ok. I was just going into town for the weekend, wasn't going to be spending much time at the hotel, so we just wanted something inexpensive. Online, I was told this hotel was $55 per night which didn't sound bad. I called to ask if they allowed dogs and they said yes, that was fine. Then, when I arrived, I saw a huge sign saying no pets allowed. I asked, and was told I could but it would be $10/night. I agreed and then she asked if it was a big dog (which it was) so she then charged me $15/night. After it was all said and done, I ended up paying $80/night for this hotel. This was DEFINITELY NOT an $80/night hotel. It served its purpose but I could've paid much less for better quality. The remote didn't work and only half of the t.v. channels came in. The towels were tiny, the lady at check in had no idea how to run my credit card.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was ok. I was just going into town for the weekend, wasn't going to be spending much time at the hotel, so we just wanted something inexpensive. Online, I was told this hotel was $55 per night which didn't sound bad. I called to ask if they allowed dogs and they said yes, that was fine. Then, when I arrived, I saw a huge sign saying no pets allowed. I asked, and was told I could but it would be $10/night. I agreed and then she asked if it was a big dog (which it was) so she then charged me $15/night. After it was all said and done, I ended up paying $80/night for this hotel. This was DEFINITELY NOT an $80/night hotel. It served its purpose but I could've paid much less for better quality. The remote didn't work and only half of the t.v. channels came in. The towels were tiny, the lady at check in had no idea how to run my credit card.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r142087966-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>142087966</t>
+  </si>
+  <si>
+    <t>10/05/2012</t>
+  </si>
+  <si>
+    <t>A Family Place To Vacation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was very helpful. the loccation was right where we wanted to be. There were restaurants nearby, and things to enjoy as well.The  families around us were considerate, and quiet during quiet time. The pool was very nice. I would go back if and whern I return. </t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r141789661-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>141789661</t>
+  </si>
+  <si>
+    <t>10/01/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel!!</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for business.  The rooms are spacious, clean and the beds are very comfortable.  The property is conveniently located off a toll road and there are lots of restaurants close by.  Staff was friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r129919854-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>129919854</t>
+  </si>
+  <si>
+    <t>05/14/2012</t>
+  </si>
+  <si>
+    <t>I CAN ONLY GO DOWN TO ONE STAR !@@!</t>
+  </si>
+  <si>
+    <t>When I called 3 days prior to get a first floor room. I was greeted on the phone by someone who could not speak English :-( C'Mon people WE ARE IN AMERICA!!! especially if you "live" here, you should speak the language..   So Finally I arrive, The building has NO AC running, or it was set to Dessert!    I had forgotten my combs at the house :-( I go down stairs to ask the desk...  "NO WE DON'T HAVE ANY" wow I am surprised I got shampoo or soap.  Oh, then I get up to the room, the coffee pot has OLD used packet of coffee in the filter and the coffee packet I wanted to use is EMPTY.The first night there I went and got fried chicken, YUM! There were crumbs on the floor when I was done, they stayed on the floor the ENTIRE week I stayed there... DID not even bother to investigate anything else..  just did my time on the project and will NEVER return to DAYS INN!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>When I called 3 days prior to get a first floor room. I was greeted on the phone by someone who could not speak English :-( C'Mon people WE ARE IN AMERICA!!! especially if you "live" here, you should speak the language..   So Finally I arrive, The building has NO AC running, or it was set to Dessert!    I had forgotten my combs at the house :-( I go down stairs to ask the desk...  "NO WE DON'T HAVE ANY" wow I am surprised I got shampoo or soap.  Oh, then I get up to the room, the coffee pot has OLD used packet of coffee in the filter and the coffee packet I wanted to use is EMPTY.The first night there I went and got fried chicken, YUM! There were crumbs on the floor when I was done, they stayed on the floor the ENTIRE week I stayed there... DID not even bother to investigate anything else..  just did my time on the project and will NEVER return to DAYS INN!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r128157712-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>128157712</t>
+  </si>
+  <si>
+    <t>04/19/2012</t>
+  </si>
+  <si>
+    <t>Want a great laugh and a wonderful stay...</t>
+  </si>
+  <si>
+    <t>First thing, if you want a good laugh google their address and look on the map to see where it is located.  If you look at the map the address shows right there by the street but if you look closer you will see the hotel is back away.  Like in behind 2 other business.  As you take a cab to the hotel, they don't offer a shuttle at all, nor did they say how far away from the airport they are.  You drive down the turnpike, and maybe if your lucky you might notice he sign for the hotel.  So then you turn onto Preston, following google and you drive right by the hotel.  You drive by several times, and can't find the hotel.  So you call agian, and get directions, they are not very clear either time you call.  finally on the third call you get better directions.  So you notice, when you drive slowly by, that yes they do have a sign but the front of the road, but its a sign the size of a for sale sign with arrows pointing back.  The first sign you notice is the Silver Stars Auto, and you see the dealership. What the hotel staff never ever mentioned was that there is a smaller road off to the side where you have to drive down to get to the hotel.
+So as you drive down and again its behind two...First thing, if you want a good laugh google their address and look on the map to see where it is located.  If you look at the map the address shows right there by the street but if you look closer you will see the hotel is back away.  Like in behind 2 other business.  As you take a cab to the hotel, they don't offer a shuttle at all, nor did they say how far away from the airport they are.  You drive down the turnpike, and maybe if your lucky you might notice he sign for the hotel.  So then you turn onto Preston, following google and you drive right by the hotel.  You drive by several times, and can't find the hotel.  So you call agian, and get directions, they are not very clear either time you call.  finally on the third call you get better directions.  So you notice, when you drive slowly by, that yes they do have a sign but the front of the road, but its a sign the size of a for sale sign with arrows pointing back.  The first sign you notice is the Silver Stars Auto, and you see the dealership. What the hotel staff never ever mentioned was that there is a smaller road off to the side where you have to drive down to get to the hotel.So as you drive down and again its behind two other business.  You pass the dealership and a storage unit then you see the hotel.  As you pull in, right there by the front door is the small swimming pool, with no privacy whats ever.  So anyone wlaking by or driving by will see you.  So then after getting there, the front desk staff member, says something about the city not letting them put up better signs due to some issue.  He asks if I have a reservation and I say yes, let me grab my reservation number.  "Just give me your card, I don't need your reservation I just need your card".  mind you never a smile or how are you doing or anything.  I then check in, he then asks do you want to upgrade to a suite for $5 more a day? I was like sure what's in a suite?  Fridge, microwave and stuff.  So yeah I was like sweet nice deal.  I get to my room and wow, I reall have to wonder what a normal room looks like, cause the room was small, no dishes no cups nothing, just a small fridge, a microwave, sink, couch, tv ( that really looked like it was gonna fall off the closest at any moment) bed and a desk.  My room back home is bigger than this suite.I go back down and ask about rental cars, and the staff member is like you want to call someone.  I ask well do you happen to have a number or someone you might recomend, and he gives me Enterprise, and mind you thats another can of worms you dont want me to open.  Then I go back to my room and I look for the ice machine.  They have 2, one on the first floor and the third floor, on the second floor, was a pop machine, that was out of order the entire time I was there.  Mind you I was there for 11 days.  Also the vending machine on the first floor was empty the entire time.they do have a business center, like all Days Inn's do, and I have stayed at a few before so I knew what I was expecting, not what I was getting.  So I go down to use the printer, I needed to print something off and then fax.  So I go down to the office and there is a printer/copier/fax machine in the room, with a computer with very slow connection, and a single fan.  I ask the front desk clerk about the printing, because it didn't print.  I had figured it would go to the front desk so they can be sure to collect the funds.  Mind you in the room there is a page i their binder that says, printing/copy $.25 a page and fax service $.50 per sheet.  So the clerk says, "we don't have printing service"  So I go back into the business center and handwrite my letter to fax.  Again nothing is working, so I go back and ask about faxing.  "We don't fax either, its not connected, we only have one line and its for the computer"  Or if you ask them a question, they will respond with "why do you need/want that".  My answer is simple, because I do, why does it matter why or want or need something?  Then on the phone it says, Long Distance calls, you can get a calling card at the front desk.  So I go down and ask about one, and imigane my surprise when he says " you have to go out for one, we don't sell them"  I explained that on the phone it says you can get them down here, and his responce again "we don't do that, its just a mess, you have to go out and get one"Then you just have to love this next bit.  Safety.  You would think would be a good reason to stay at a hotel.  Well if you agree then never stay here.  The time I was down in Dallas, we had some tornado's happen. Mind you not one but 12 of them.  You would really think, that when your at a hotel, and you have guests that are from out of state, that when you have something like that happeing, and you have the sirens going off, that you would somehow make it known to all your guests in the hotel, that something is going on.  I am from Alaska, and we don't get anything like them at all.  So when the sirens were going off, I had just thought that there was some accident or some cop or something lost in the neighborhood.  I was just watchig tv show.  was not till later when I had gone down to the front desk to get some ice, and I had asked what was up with the sirens, was then told about what had happened.  One of them was about not even 10 miles from the hotel I later found out from watching the news.So all while, I had lost my wallet and cell phone.  Had everything replaced.  So with the tornado's giong on and my friends back home hearing about everything and worring about me since I couldn't get ahold of them.  They called the hotel and the front desk wouldn't patch them through to me.  I finally checked my email and was told to call and check in.  My friend had said the lady at the front desk was rude and wouldn't patch her through and then hung up on her.So after a few days I go down to the front desk to check on my phone.  The front desk lady said no nothing was deleivered.  I asked her about the box on the floor right behind her.  She grabs it and says"not for you, your not the days inn" then asks for my room number and says "again no not for you, a different room".  I go check my email and it showed it was deleivered.  I go back and ask yet another front desk clerk and he says "whats your room number, and yes this is for you"  I look at it and yes it does say Days Inn, because that is where I am staying but also it has my name and room number, yes the name was spelled wrong but the lady just didnt want to pay attention.  All she read was Days Inn, and didn't bother to read the rest.  then nothing not even I am sorry or anything, just walked away.So all in all, I highly suggest that you never stay here.  The entire time I was there, I hardler ever say anyone really.  Oh yeah and then at check out, they say 11am.  They mean 11 am, no late check out, and if you have anything in your room thats trash, and you let them know its trash and they even say that they will toss if for you, they don't and wont, unless they charge you like $30.00 per bag.  Mind you I had some extra stuff since I had emptied my storage unit.  I asked them if they wouldn't mind doing it for me, because while I was down there I happened to sprian my ankle.  So the day of check out, yet another guy at the front desk, tells me I have to toss it myself, no matter what, otherwise they will charge me a nice fine for doing it.  I explained what I was told, and his words were, "You lie no one would ever say yes to you"I am sorry but that was the last straw, no one tells me I lied or calls me a liar, no one.  So I walked back upstairs after grabbing the bag rack and took the stuff out to the trash myself.  I also noticed that when it was after 11am, just a few mins, like 11:05 am, the one guy from the front desk was pounding on the door of one guest hat was to check out and was louding saying he needed to check out now, otherwise he would have to pay a fee of $10 for every few minutes or something riduclus like that.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>123Sonny, Front Office Manager at Sunstone Inn, responded to this reviewResponded April 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2012</t>
+  </si>
+  <si>
+    <t>First thing, if you want a good laugh google their address and look on the map to see where it is located.  If you look at the map the address shows right there by the street but if you look closer you will see the hotel is back away.  Like in behind 2 other business.  As you take a cab to the hotel, they don't offer a shuttle at all, nor did they say how far away from the airport they are.  You drive down the turnpike, and maybe if your lucky you might notice he sign for the hotel.  So then you turn onto Preston, following google and you drive right by the hotel.  You drive by several times, and can't find the hotel.  So you call agian, and get directions, they are not very clear either time you call.  finally on the third call you get better directions.  So you notice, when you drive slowly by, that yes they do have a sign but the front of the road, but its a sign the size of a for sale sign with arrows pointing back.  The first sign you notice is the Silver Stars Auto, and you see the dealership. What the hotel staff never ever mentioned was that there is a smaller road off to the side where you have to drive down to get to the hotel.
+So as you drive down and again its behind two...First thing, if you want a good laugh google their address and look on the map to see where it is located.  If you look at the map the address shows right there by the street but if you look closer you will see the hotel is back away.  Like in behind 2 other business.  As you take a cab to the hotel, they don't offer a shuttle at all, nor did they say how far away from the airport they are.  You drive down the turnpike, and maybe if your lucky you might notice he sign for the hotel.  So then you turn onto Preston, following google and you drive right by the hotel.  You drive by several times, and can't find the hotel.  So you call agian, and get directions, they are not very clear either time you call.  finally on the third call you get better directions.  So you notice, when you drive slowly by, that yes they do have a sign but the front of the road, but its a sign the size of a for sale sign with arrows pointing back.  The first sign you notice is the Silver Stars Auto, and you see the dealership. What the hotel staff never ever mentioned was that there is a smaller road off to the side where you have to drive down to get to the hotel.So as you drive down and again its behind two other business.  You pass the dealership and a storage unit then you see the hotel.  As you pull in, right there by the front door is the small swimming pool, with no privacy whats ever.  So anyone wlaking by or driving by will see you.  So then after getting there, the front desk staff member, says something about the city not letting them put up better signs due to some issue.  He asks if I have a reservation and I say yes, let me grab my reservation number.  "Just give me your card, I don't need your reservation I just need your card".  mind you never a smile or how are you doing or anything.  I then check in, he then asks do you want to upgrade to a suite for $5 more a day? I was like sure what's in a suite?  Fridge, microwave and stuff.  So yeah I was like sweet nice deal.  I get to my room and wow, I reall have to wonder what a normal room looks like, cause the room was small, no dishes no cups nothing, just a small fridge, a microwave, sink, couch, tv ( that really looked like it was gonna fall off the closest at any moment) bed and a desk.  My room back home is bigger than this suite.I go back down and ask about rental cars, and the staff member is like you want to call someone.  I ask well do you happen to have a number or someone you might recomend, and he gives me Enterprise, and mind you thats another can of worms you dont want me to open.  Then I go back to my room and I look for the ice machine.  They have 2, one on the first floor and the third floor, on the second floor, was a pop machine, that was out of order the entire time I was there.  Mind you I was there for 11 days.  Also the vending machine on the first floor was empty the entire time.they do have a business center, like all Days Inn's do, and I have stayed at a few before so I knew what I was expecting, not what I was getting.  So I go down to use the printer, I needed to print something off and then fax.  So I go down to the office and there is a printer/copier/fax machine in the room, with a computer with very slow connection, and a single fan.  I ask the front desk clerk about the printing, because it didn't print.  I had figured it would go to the front desk so they can be sure to collect the funds.  Mind you in the room there is a page i their binder that says, printing/copy $.25 a page and fax service $.50 per sheet.  So the clerk says, "we don't have printing service"  So I go back into the business center and handwrite my letter to fax.  Again nothing is working, so I go back and ask about faxing.  "We don't fax either, its not connected, we only have one line and its for the computer"  Or if you ask them a question, they will respond with "why do you need/want that".  My answer is simple, because I do, why does it matter why or want or need something?  Then on the phone it says, Long Distance calls, you can get a calling card at the front desk.  So I go down and ask about one, and imigane my surprise when he says " you have to go out for one, we don't sell them"  I explained that on the phone it says you can get them down here, and his responce again "we don't do that, its just a mess, you have to go out and get one"Then you just have to love this next bit.  Safety.  You would think would be a good reason to stay at a hotel.  Well if you agree then never stay here.  The time I was down in Dallas, we had some tornado's happen. Mind you not one but 12 of them.  You would really think, that when your at a hotel, and you have guests that are from out of state, that when you have something like that happeing, and you have the sirens going off, that you would somehow make it known to all your guests in the hotel, that something is going on.  I am from Alaska, and we don't get anything like them at all.  So when the sirens were going off, I had just thought that there was some accident or some cop or something lost in the neighborhood.  I was just watchig tv show.  was not till later when I had gone down to the front desk to get some ice, and I had asked what was up with the sirens, was then told about what had happened.  One of them was about not even 10 miles from the hotel I later found out from watching the news.So all while, I had lost my wallet and cell phone.  Had everything replaced.  So with the tornado's giong on and my friends back home hearing about everything and worring about me since I couldn't get ahold of them.  They called the hotel and the front desk wouldn't patch them through to me.  I finally checked my email and was told to call and check in.  My friend had said the lady at the front desk was rude and wouldn't patch her through and then hung up on her.So after a few days I go down to the front desk to check on my phone.  The front desk lady said no nothing was deleivered.  I asked her about the box on the floor right behind her.  She grabs it and says"not for you, your not the days inn" then asks for my room number and says "again no not for you, a different room".  I go check my email and it showed it was deleivered.  I go back and ask yet another front desk clerk and he says "whats your room number, and yes this is for you"  I look at it and yes it does say Days Inn, because that is where I am staying but also it has my name and room number, yes the name was spelled wrong but the lady just didnt want to pay attention.  All she read was Days Inn, and didn't bother to read the rest.  then nothing not even I am sorry or anything, just walked away.So all in all, I highly suggest that you never stay here.  The entire time I was there, I hardler ever say anyone really.  Oh yeah and then at check out, they say 11am.  They mean 11 am, no late check out, and if you have anything in your room thats trash, and you let them know its trash and they even say that they will toss if for you, they don't and wont, unless they charge you like $30.00 per bag.  Mind you I had some extra stuff since I had emptied my storage unit.  I asked them if they wouldn't mind doing it for me, because while I was down there I happened to sprian my ankle.  So the day of check out, yet another guy at the front desk, tells me I have to toss it myself, no matter what, otherwise they will charge me a nice fine for doing it.  I explained what I was told, and his words were, "You lie no one would ever say yes to you"I am sorry but that was the last straw, no one tells me I lied or calls me a liar, no one.  So I walked back upstairs after grabbing the bag rack and took the stuff out to the trash myself.  I also noticed that when it was after 11am, just a few mins, like 11:05 am, the one guy from the front desk was pounding on the door of one guest hat was to check out and was louding saying he needed to check out now, otherwise he would have to pay a fee of $10 for every few minutes or something riduclus like that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r127640264-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>127640264</t>
+  </si>
+  <si>
+    <t>04/10/2012</t>
+  </si>
+  <si>
+    <t>Rude staff, worst service and no value for money</t>
+  </si>
+  <si>
+    <t>I have been staying in Days Inn for last 5 years, wherever i go either business trip or personal vacation i try to find Days Inn hotel as i am Wyndham Rewards member and Days Inn was the one who started Complimentary Breakfast.But this property management is really rude and don't ever give your credit card details to them they can commit to fraud by putting extra dollars on your bill after you leave the property. Worst breakfast i have even seen, mixed water in regular juice, dated bed sheets, towels and interiors.Staff in front desk is the worst and they don't have any respect towards customers, they can torture you like anything. I gave 1 star because that is the least i can give(no option for negative rating here).MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been staying in Days Inn for last 5 years, wherever i go either business trip or personal vacation i try to find Days Inn hotel as i am Wyndham Rewards member and Days Inn was the one who started Complimentary Breakfast.But this property management is really rude and don't ever give your credit card details to them they can commit to fraud by putting extra dollars on your bill after you leave the property. Worst breakfast i have even seen, mixed water in regular juice, dated bed sheets, towels and interiors.Staff in front desk is the worst and they don't have any respect towards customers, they can torture you like anything. I gave 1 star because that is the least i can give(no option for negative rating here).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r119112307-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>119112307</t>
+  </si>
+  <si>
+    <t>10/09/2011</t>
+  </si>
+  <si>
+    <t>Mouse Droppings in my bed!!!</t>
+  </si>
+  <si>
+    <t>We were supposed to be stayiing here for 3 nights and couldn't even make it that long. First day we got there the staff was rude upon checking in and then again when we let them know the remote was missing from the room. After leaving the hotel for a few hours we returned to find our TV was missing because they couldn't find the remote?!?! They moved us into a different room only to find MOUSE DROPPINGS when I pulled back my sheets. I called down to the front desk and told them the situation and asked for new sheets to which they told me I had to go down and get them myself and MAKE MY OWN BED. I refuse to stay another night. Please DO NOT STAY HERE it is a WASTE OF MONEY!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>123Sonny, Manager at Sunstone Inn, responded to this reviewResponded October 26, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2011</t>
+  </si>
+  <si>
+    <t>We were supposed to be stayiing here for 3 nights and couldn't even make it that long. First day we got there the staff was rude upon checking in and then again when we let them know the remote was missing from the room. After leaving the hotel for a few hours we returned to find our TV was missing because they couldn't find the remote?!?! They moved us into a different room only to find MOUSE DROPPINGS when I pulled back my sheets. I called down to the front desk and told them the situation and asked for new sheets to which they told me I had to go down and get them myself and MAKE MY OWN BED. I refuse to stay another night. Please DO NOT STAY HERE it is a WASTE OF MONEY!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r118913918-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>118913918</t>
+  </si>
+  <si>
+    <t>10/03/2011</t>
+  </si>
+  <si>
+    <t>Dated, Depressing &amp; Down-market</t>
+  </si>
+  <si>
+    <t>This is the sort of place that you stay at because you have to, not because you choose to.  The staff weren't particularly welcoming upon my check in.  I had to pay extra for a non-smoking room. The decor in the room was dated.  Found a dead cricket in my room and some live insects in the bathroom.  This place just feels depressing.  On the plus side, free WIFI and cheap room rates.I wouldn't stay here again.  I would rather pay more money and stay somewhere nicer.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r53026816-Sunstone_Inn-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>53026816</t>
+  </si>
+  <si>
+    <t>01/09/2010</t>
+  </si>
+  <si>
+    <t>Cant go wrong with Days Inn</t>
+  </si>
+  <si>
+    <t>Did the commercials influence my decision....yep hehe.  Anyways I was on Essentravel.com the other day and clicked to the Days Inn.  Good location,  brand name,  ok.  The rooms were as expected,  clean,  comftorable beds,  and the staff was terrific also.  I would return for sure,  Days Inn delivers!Link Owner:  Bart WatersMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>Did the commercials influence my decision....yep hehe.  Anyways I was on Essentravel.com the other day and clicked to the Days Inn.  Good location,  brand name,  ok.  The rooms were as expected,  clean,  comftorable beds,  and the staff was terrific also.  I would return for sure,  Days Inn delivers!Link Owner:  Bart WatersMore</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1844,4732 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>153</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L21" t="s">
+        <v>157</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>145</v>
+      </c>
+      <c r="O21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>153</v>
+      </c>
+      <c r="O22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" t="s">
+        <v>167</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" t="s">
+        <v>173</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" t="s">
+        <v>178</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O25" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>182</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" t="s">
+        <v>186</v>
+      </c>
+      <c r="L27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>182</v>
+      </c>
+      <c r="O27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" t="s">
+        <v>185</v>
+      </c>
+      <c r="K28" t="s">
+        <v>190</v>
+      </c>
+      <c r="L28" t="s">
+        <v>191</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>182</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>193</v>
+      </c>
+      <c r="J29" t="s">
+        <v>194</v>
+      </c>
+      <c r="K29" t="s">
+        <v>195</v>
+      </c>
+      <c r="L29" t="s">
+        <v>196</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>182</v>
+      </c>
+      <c r="O29" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>198</v>
+      </c>
+      <c r="J30" t="s">
+        <v>199</v>
+      </c>
+      <c r="K30" t="s">
+        <v>200</v>
+      </c>
+      <c r="L30" t="s">
+        <v>201</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>202</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>204</v>
+      </c>
+      <c r="J31" t="s">
+        <v>205</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s">
+        <v>126</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>202</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>209</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>211</v>
+      </c>
+      <c r="J33" t="s">
+        <v>212</v>
+      </c>
+      <c r="K33" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" t="s">
+        <v>214</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>215</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>217</v>
+      </c>
+      <c r="J34" t="s">
+        <v>218</v>
+      </c>
+      <c r="K34" t="s">
+        <v>219</v>
+      </c>
+      <c r="L34" t="s">
+        <v>220</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>221</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>224</v>
+      </c>
+      <c r="J35" t="s">
+        <v>225</v>
+      </c>
+      <c r="K35" t="s">
+        <v>226</v>
+      </c>
+      <c r="L35" t="s">
+        <v>227</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>221</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>228</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>229</v>
+      </c>
+      <c r="J36" t="s">
+        <v>230</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>221</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>232</v>
+      </c>
+      <c r="J37" t="s">
+        <v>233</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s">
+        <v>126</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>221</v>
+      </c>
+      <c r="O37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>235</v>
+      </c>
+      <c r="J38" t="s">
+        <v>236</v>
+      </c>
+      <c r="K38" t="s">
+        <v>237</v>
+      </c>
+      <c r="L38" t="s">
+        <v>238</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>239</v>
+      </c>
+      <c r="O38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>242</v>
+      </c>
+      <c r="J39" t="s">
+        <v>243</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>239</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>245</v>
+      </c>
+      <c r="J40" t="s">
+        <v>246</v>
+      </c>
+      <c r="K40" t="s">
+        <v>247</v>
+      </c>
+      <c r="L40" t="s">
+        <v>248</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>249</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>251</v>
+      </c>
+      <c r="J41" t="s">
+        <v>252</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>253</v>
+      </c>
+      <c r="O41" t="s">
+        <v>113</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>254</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>255</v>
+      </c>
+      <c r="J42" t="s">
+        <v>256</v>
+      </c>
+      <c r="K42" t="s">
+        <v>257</v>
+      </c>
+      <c r="L42" t="s">
+        <v>258</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>259</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>260</v>
+      </c>
+      <c r="J43" t="s">
+        <v>261</v>
+      </c>
+      <c r="K43" t="s">
+        <v>262</v>
+      </c>
+      <c r="L43" t="s">
+        <v>263</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>264</v>
+      </c>
+      <c r="O43" t="s">
+        <v>113</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>266</v>
+      </c>
+      <c r="J44" t="s">
+        <v>267</v>
+      </c>
+      <c r="K44" t="s">
+        <v>268</v>
+      </c>
+      <c r="L44" t="s">
+        <v>269</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>270</v>
+      </c>
+      <c r="O44" t="s">
+        <v>113</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>271</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>272</v>
+      </c>
+      <c r="J45" t="s">
+        <v>273</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>270</v>
+      </c>
+      <c r="O45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>274</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J46" t="s">
+        <v>273</v>
+      </c>
+      <c r="K46" t="s">
+        <v>276</v>
+      </c>
+      <c r="L46" t="s">
+        <v>277</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>270</v>
+      </c>
+      <c r="O46" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>280</v>
+      </c>
+      <c r="J47" t="s">
+        <v>281</v>
+      </c>
+      <c r="K47" t="s">
+        <v>282</v>
+      </c>
+      <c r="L47" t="s">
+        <v>283</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>284</v>
+      </c>
+      <c r="O47" t="s">
+        <v>78</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>286</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>287</v>
+      </c>
+      <c r="J48" t="s">
+        <v>288</v>
+      </c>
+      <c r="K48" t="s">
+        <v>289</v>
+      </c>
+      <c r="L48" t="s">
+        <v>290</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>284</v>
+      </c>
+      <c r="O48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>291</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>292</v>
+      </c>
+      <c r="J49" t="s">
+        <v>293</v>
+      </c>
+      <c r="K49" t="s">
+        <v>294</v>
+      </c>
+      <c r="L49" t="s">
+        <v>295</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>284</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>296</v>
+      </c>
+      <c r="X49" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>299</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>300</v>
+      </c>
+      <c r="J50" t="s">
+        <v>301</v>
+      </c>
+      <c r="K50" t="s">
+        <v>302</v>
+      </c>
+      <c r="L50" t="s">
+        <v>303</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>304</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>305</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>306</v>
+      </c>
+      <c r="J51" t="s">
+        <v>307</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s">
+        <v>126</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>304</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>308</v>
+      </c>
+      <c r="X51" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>310</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>311</v>
+      </c>
+      <c r="J52" t="s">
+        <v>312</v>
+      </c>
+      <c r="K52" t="s">
+        <v>313</v>
+      </c>
+      <c r="L52" t="s">
+        <v>314</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>315</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>316</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>317</v>
+      </c>
+      <c r="J53" t="s">
+        <v>318</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s">
+        <v>126</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>319</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>320</v>
+      </c>
+      <c r="X53" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>322</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>323</v>
+      </c>
+      <c r="J54" t="s">
+        <v>324</v>
+      </c>
+      <c r="K54" t="s">
+        <v>325</v>
+      </c>
+      <c r="L54" t="s">
+        <v>326</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>319</v>
+      </c>
+      <c r="O54" t="s">
+        <v>71</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>328</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>329</v>
+      </c>
+      <c r="J55" t="s">
+        <v>330</v>
+      </c>
+      <c r="K55" t="s">
+        <v>331</v>
+      </c>
+      <c r="L55" t="s">
+        <v>332</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>333</v>
+      </c>
+      <c r="O55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>335</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>336</v>
+      </c>
+      <c r="J56" t="s">
+        <v>337</v>
+      </c>
+      <c r="K56" t="s">
+        <v>338</v>
+      </c>
+      <c r="L56" t="s">
+        <v>339</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>340</v>
+      </c>
+      <c r="O56" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>342</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>343</v>
+      </c>
+      <c r="J57" t="s">
+        <v>344</v>
+      </c>
+      <c r="K57" t="s">
+        <v>345</v>
+      </c>
+      <c r="L57" t="s">
+        <v>346</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>347</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>348</v>
+      </c>
+      <c r="X57" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>351</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>352</v>
+      </c>
+      <c r="J58" t="s">
+        <v>344</v>
+      </c>
+      <c r="K58" t="s">
+        <v>353</v>
+      </c>
+      <c r="L58" t="s">
+        <v>354</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>355</v>
+      </c>
+      <c r="O58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>356</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>357</v>
+      </c>
+      <c r="J59" t="s">
+        <v>358</v>
+      </c>
+      <c r="K59" t="s">
+        <v>359</v>
+      </c>
+      <c r="L59" t="s">
+        <v>360</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>347</v>
+      </c>
+      <c r="O59" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>361</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>362</v>
+      </c>
+      <c r="J60" t="s">
+        <v>363</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s">
+        <v>126</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>347</v>
+      </c>
+      <c r="O60" t="s">
+        <v>364</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>365</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>366</v>
+      </c>
+      <c r="J61" t="s">
+        <v>367</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>347</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>368</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J62" t="s">
+        <v>370</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>371</v>
+      </c>
+      <c r="O62" t="s">
+        <v>78</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>372</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>373</v>
+      </c>
+      <c r="J63" t="s">
+        <v>374</v>
+      </c>
+      <c r="K63" t="s">
+        <v>375</v>
+      </c>
+      <c r="L63" t="s">
+        <v>376</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>371</v>
+      </c>
+      <c r="O63" t="s">
+        <v>113</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>377</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>378</v>
+      </c>
+      <c r="J64" t="s">
+        <v>379</v>
+      </c>
+      <c r="K64" t="s">
+        <v>380</v>
+      </c>
+      <c r="L64" t="s">
+        <v>381</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>382</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>383</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>384</v>
+      </c>
+      <c r="J65" t="s">
+        <v>385</v>
+      </c>
+      <c r="K65" t="s">
+        <v>386</v>
+      </c>
+      <c r="L65" t="s">
+        <v>387</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>382</v>
+      </c>
+      <c r="O65" t="s">
+        <v>71</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>389</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>390</v>
+      </c>
+      <c r="J66" t="s">
+        <v>391</v>
+      </c>
+      <c r="K66" t="s">
+        <v>392</v>
+      </c>
+      <c r="L66" t="s">
+        <v>393</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>394</v>
+      </c>
+      <c r="O66" t="s">
+        <v>78</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>395</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>396</v>
+      </c>
+      <c r="J67" t="s">
+        <v>397</v>
+      </c>
+      <c r="K67" t="s">
+        <v>398</v>
+      </c>
+      <c r="L67" t="s">
+        <v>399</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>382</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>400</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>401</v>
+      </c>
+      <c r="J68" t="s">
+        <v>402</v>
+      </c>
+      <c r="K68" t="s">
+        <v>403</v>
+      </c>
+      <c r="L68" t="s">
+        <v>404</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>394</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>406</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>407</v>
+      </c>
+      <c r="J69" t="s">
+        <v>408</v>
+      </c>
+      <c r="K69" t="s">
+        <v>409</v>
+      </c>
+      <c r="L69" t="s">
+        <v>410</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>411</v>
+      </c>
+      <c r="O69" t="s">
+        <v>113</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>412</v>
+      </c>
+      <c r="X69" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>415</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>416</v>
+      </c>
+      <c r="J70" t="s">
+        <v>417</v>
+      </c>
+      <c r="K70" t="s">
+        <v>418</v>
+      </c>
+      <c r="L70" t="s">
+        <v>419</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>411</v>
+      </c>
+      <c r="O70" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>421</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>422</v>
+      </c>
+      <c r="J71" t="s">
+        <v>423</v>
+      </c>
+      <c r="K71" t="s">
+        <v>424</v>
+      </c>
+      <c r="L71" t="s">
+        <v>425</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>426</v>
+      </c>
+      <c r="O71" t="s">
+        <v>71</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>427</v>
+      </c>
+      <c r="X71" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>430</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>431</v>
+      </c>
+      <c r="J72" t="s">
+        <v>432</v>
+      </c>
+      <c r="K72" t="s">
+        <v>433</v>
+      </c>
+      <c r="L72" t="s">
+        <v>434</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>426</v>
+      </c>
+      <c r="O72" t="s">
+        <v>113</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>40784</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>435</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>436</v>
+      </c>
+      <c r="J73" t="s">
+        <v>437</v>
+      </c>
+      <c r="K73" t="s">
+        <v>438</v>
+      </c>
+      <c r="L73" t="s">
+        <v>439</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>440</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>427</v>
+      </c>
+      <c r="X73" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>441</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_755.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_755.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="514">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Tammy K</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>I stay here because it is very close to my corporate office and I can get there in about 5 minutes. The rooms are ok. They are typically clean. This trip there was a musty smell in the room. Could be something to do with all the rain they've had. One thing I don't understand is why they have to take a photo copy of your drivers license and credit card when you check in. I always ask for it back when I check out, but that doesn't mean someone couldn't take the information and misuse it. Overall it's not a bad place to stay if you don't want a luxury hotel.  I've never felt unsafe there and I always stay by myself. More</t>
   </si>
   <si>
+    <t>ebethinc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r367193462-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>Gross stains, dead bugs, ratty carpet, AC unit didn't work properly, sink was broken, hallways smelled heavily of smoke. DISGUSTING. We were booking a last minute work trip, and this was the only hotel with availability for our first night. Now i see why. No one who knows better would EVER stay here. I am surprised that Days Inn would allow this hotel to operate under their brand name. We were supposed to stay for 3 nights, and we checked out after 1.</t>
   </si>
   <si>
+    <t>Georgina M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r364852567-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t xml:space="preserve">This particular Days Inn &amp; Suites was amazing! Paul the manager was so nice. He made fresh coffee for me every single morning and made the whole stay so easy for me! Housekeeping was fast and came every day. Breakfast was great. Hotel is very clean and not noisy. I will definitely be staying here again next time I am in the Dallas area! </t>
   </si>
   <si>
+    <t>M6341JPjudiths</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r348616356-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>jacquelinebG3535BH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r338690622-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>marysM1299XX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r332466807-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Vickie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r321330798-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>coshai80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r318117027-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -306,6 +330,9 @@
     <t xml:space="preserve">The hotel was nasty. Housekeeping did not have room ready. Bathroom floor was disgusting, bed sheets were dirty, pillow cases had black hair all on them, carpet smelt terrible, it was so disgusting I went and bought my fiancé and I some sheets, a cover and pillow cases from walmart. I should've listened when other reviews said do not stay there. </t>
   </si>
   <si>
+    <t>Airrion H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r317890022-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -324,6 +351,9 @@
     <t>this is one of the worst hotel , i ever in my life stayed in.1. they call me 2 hours before checking asking am i still coming after they ran my card.2.when i checked in they up the price from what was the price i booked for.3. the room smelled like pine so4. the pool was just horrible, paint chip off (see pictures)5. the window was open and the screen was ready to fall out.6 the in phone didnt work ,so i had to use mines to call to get wi-fi code.7.the microwave was dirty8.the sink had cigarette burns.9.the fridge was losing paint.10.the paint on the walls was mismatch in spots11.the towels was dirty12. NO TOILET PAPER IN THE BATHROOM, TOLD ME TO USE THE BOX OF TISSUE IN THE BATHROOM!!!!13. THE TOILET RAN EVERY 30 SECONDS THE ONLY REASON I STAYED WAS BECAUSE ALL THE HOTELS WAS BOOKED IN THE AREA FOR A TOURNAMENT.More</t>
   </si>
   <si>
+    <t>samantharF2665SH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r316411176-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -339,6 +369,9 @@
     <t xml:space="preserve">Our stay was terrible. Dirty. Used booking.com and the person working there was upset with us because he said booking.com doesn't work?! How were we supposed to know?! It was not clean, not friendly staff. Terrible </t>
   </si>
   <si>
+    <t>357flyboy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r314905039-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -363,12 +396,18 @@
     <t>Hotel is filthy and manager is not capable of running hotel anywhere but into the ground.  Room was in poor condition and extremely dirty. Iron in room didn't work. Dryer sheets were on top of air conditioning unit to help with the smell in room. Bathroom fixtures (sink, toilet) unclean. Carpet in room not vacuumed and soiled. When I checked into room I had to witness manager yelling and arguing with other guests because their room door didn't lock.  I mentioned the rooms condition to this same manager (Paul he said his name was) and he refused to listen and argued with me in the same manner.  Wyndham area managers need to do a site inspection on this property. More</t>
   </si>
   <si>
+    <t>F6322HHmichaelr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r314880073-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
     <t>314880073</t>
   </si>
   <si>
+    <t>annies887</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r293587973-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -387,6 +426,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Don R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r288154710-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -402,6 +444,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Neil_953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r287754214-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -417,6 +462,9 @@
     <t xml:space="preserve">There were Drity Underwear in Drawer, used and order ToothBrush in roon, Coffee machine have smooth and mold. if like i can provide pictures of them. No an single Ice machine is working.  booked room for 2 night checked in and come at night at 12:30 AM and check at 4 and went to La Cunta Inn and paid them 150 a night cas it was bad at days Inn bad for serivec and bad for Health. </t>
   </si>
   <si>
+    <t>Rangerfan34</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r278401507-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -438,6 +486,9 @@
     <t>Booked a hotel room for one night for a weekend baseball tournament. Checked in in the afternoon and going back to play one last game came back to hotel to find that our key cards did not work. When we went to the front desk to let them know we found out they had given our room to someone else and checked us out. And on top of that they were also having a problem with another guest, they could not locate their name after confirming earlier in the day that had a reservation and heard them proceed to call that guest trash. After hearing this told them we would be leaving and would like a refund and the owner told us no the money was now his and there would be no refund. He talked to us very disrespectfully. Would NOT recommend this hotel to anyone. And would not give any rating except that it is required.More</t>
   </si>
   <si>
+    <t>Harry P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r277378424-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -459,6 +510,9 @@
     <t>I booked a smoking room and when I took the luggage up to the room I notice it had a no smoking emblem...no problem...all we did was set our luggage inside the door and as we were leaving I mentioned to the desk clerk about the no smoking sign and he said it was ok to smoke in that room so we left and went to the Jimmy Buffet concert. Upon returning @ midnight I asked the new clerk for an ashtray.....that's when it all started....he had to call this person then that person...no ashtray no way...told us the day clerk made a mistake. Anyhow we were switched to a smoking room (after he made 45mins of phone calls) and guess what? No ashtray! Come morning I really like a cup of coffee and there's the coffee maker...cool...coffee pot has no handle...It's the simple things. Be aware there is no entrance from the highway. You have to enter a shared drive with a car dealership and the motel is behind that. Just a little paper sign out by the road. Good Luck.More</t>
   </si>
   <si>
+    <t>bentorres88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r275158825-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -468,6 +522,9 @@
     <t>05/27/2015</t>
   </si>
   <si>
+    <t>mikecC6691SV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r270360263-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -480,6 +537,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Alma A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r270338126-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -492,6 +552,9 @@
     <t>The room had a bad smell.  My towels were dirty or stained so I had to request new towels.  The tub spout fell off when I turned on the shower.  The internet was down in the 'business center' but the clerk was able to print my boarding pass for me. My room key stopped working twice so I had to go back to the front and have them reset it.</t>
   </si>
   <si>
+    <t>Maximillian B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r265019941-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -507,6 +570,9 @@
     <t>The property was unclean in every area: bathrooms filthy, carpet stained. After seeing the room, my wife and I decided to leave, but they refused to return our money. We left anyway. We could not have slept in such filth.</t>
   </si>
   <si>
+    <t>Deidra B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r260236840-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -525,6 +591,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Stacey H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r258832564-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -540,6 +609,9 @@
     <t xml:space="preserve">Great location is about all I can say for this hotel.When arrived no TV service which understood due to storm that came in.  Can hear every noise in hotel  when someone turns on water can hear a loud drip inside the wall that went on forever. Worst sleep ever decided to go try complimentary breakfast wow what a mistake milk hot and oatmeal looked 5 days old.  I will be back in the area but will not stay at this Days Inn again.  Needs updating to rooms and when we got there they had to come dust due to 2" thick. Very Miserable stay!!! </t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r258293543-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -555,6 +627,9 @@
     <t xml:space="preserve">The overall appearance of the room was shabby and needed to be updated.  There was a stain on the comfortor, bugs or ashes in the bathtub, and the carpet was in dire need of cleaning or replacing.However, the front desk clerk was courteous and helpful. </t>
   </si>
   <si>
+    <t>34edwardw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r251194188-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -567,6 +642,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Melani K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r249505954-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -582,6 +660,9 @@
     <t xml:space="preserve">this by far is the best days inn hotel I have ever stayed at the rock they are so friendly thoughtI was at my home instead of a hotel espeialy SUNNY and another young clerk that checked me into the hotel!!!!! the hotel is very clean as well as the rooms the rooms are very big you have pleny of room to move around the breakfast is very nice not to mention it's very quite I would bring my whole family here no worries any shady business !!!! StAY HERE IF YOU WANt YOUR MONEY WORtH!!!!♥_♥♥_♥♥_♥♥_♥♥_♥    </t>
   </si>
   <si>
+    <t>studio1beats</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r249494296-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -594,6 +675,9 @@
     <t xml:space="preserve">I booked this hotel online and specifically asked for a non smoking room.  The front desk personnel that I would be charged an additional $10 for that feature.  Check-out is not until 11:00a... They came knocking at my door at 9:00a asking if I was extending my stay.. They called and knocked until it was time for check-out.  I will never stay here again!  </t>
   </si>
   <si>
+    <t>hab2mt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r248171292-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -609,6 +693,9 @@
     <t>nice ,clean, excellent customer service, free wifi, nice brakfast., No smell in rooms, showe nice well equiped, bed sheet nice. lights all good. dining room nice, I would like to stay there for next trip. This is my second stay in this hotel.</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r245299855-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -627,6 +714,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Sarah D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r244799936-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -636,6 +726,9 @@
     <t>12/17/2014</t>
   </si>
   <si>
+    <t>Mark A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r223923307-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -648,6 +741,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Benito M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r216953636-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -666,6 +762,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Alysia T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r214354101-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -687,6 +786,9 @@
     <t>Do not use a credit card to make a reservation at this hotel.  A reservation was made for my daughter at this hotel with my credit card. She showed her id and gave her credit card when she checked in.  They charged her c/c and mine.  They will not reverse the charge on my card even though I was not there.  Days Inn and my requested a copy of the c/c receipt used. This hotel does not give c/c receipts and she doesn't remember which one she used.  it is wrong for them to charge both credit cards, one at check in and the other at check out.  Most people may not even pay attention that they are being double billed.More</t>
   </si>
   <si>
+    <t>Jim C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r211882521-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -702,6 +804,9 @@
     <t>I recognize that this is not the Ritz, but a vacuum cleaner should be run around every now and then. There was waste on the toilet seat and a used towel and strange underwear behind the bathroom door. The bathroom was obviously not cleaned after the last "guest" left. It was disgusting!</t>
   </si>
   <si>
+    <t>Kathy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r211146746-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -711,6 +816,9 @@
     <t>06/19/2014</t>
   </si>
   <si>
+    <t>Olurotimi O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r210119561-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -720,6 +828,9 @@
     <t>06/13/2014</t>
   </si>
   <si>
+    <t>Desiree B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r207601434-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -741,6 +852,9 @@
     <t>I would like to start off by complimenting you on your cleanliness and respectful staff and Great prices!. We did enjoy our stay and it was very spacious and clean, which is what I really loved about that particular room. There was only one issues that I had, which was the Jacuzzi. It was too small. I mean Really small. As a hotel/motel owner I'm sure you are aware that when renting a Jacuzzi suite, most likely there will be at least two people in that suite and would like to enjoy and relax in that Jacuzzi. Well, unfortunately that is not the case here. All of your Jacuzzi tubs barely fit one person in them. I don't want to have to wrestle for foot space in my Jacuzzi tub with my mate. We did have a great time, the room itself was very spacious and had great lighting as well, but you guyz need bigger Jacuzzi tubs or What's The Point?....More</t>
   </si>
   <si>
+    <t>K M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r202341509-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -750,6 +864,9 @@
     <t>04/22/2014</t>
   </si>
   <si>
+    <t>Charles B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r199099905-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -768,6 +885,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Richard B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r191637769-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -780,6 +900,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>jacktoth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r186457984-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -795,6 +918,9 @@
     <t>Dirty, Smelly, and Nasty.  There was not anything redeeming about this hotel. The place was dirty, tattered and the breakfast food was old and stale. The desk clerks varied each day with an acute lack of English skills.  How can Days Inn allow these owners to fly their flag !!!!</t>
   </si>
   <si>
+    <t>Tomika C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r185790968-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -813,6 +939,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Gary D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r182742572-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -831,6 +960,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Elaine N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r181185687-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -840,6 +972,9 @@
     <t>10/15/2013</t>
   </si>
   <si>
+    <t>Michelle G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r181153604-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -855,6 +990,9 @@
     <t>I just visited this Hotel this past weekend and it was horrible. I made my reservation through expedia and that was my first  mistake. I reserved the room for 3 adults and when I arrived they said I only reserved for 2 adults and had to pay an extra ten dollars. Then they wanted to copy my debit card and DL. The staff was rude and they attempted to rush me from the front desk. The room was nothing like the pictures. The towels were dengy (thankfully I always bring my own) the bed sheets were they same. I slept on top of the cover. The sink, toilet, and tub were not clean. (Thankfully I carry lysol spray and wipes) The toilet itself moved! It was not firmly installed. This place needs some major work ASAP!!! When we checked out the lady tried to charge me $10 again!!! Very disorganized and not clean! I would not recommend this to anyone!!More</t>
   </si>
   <si>
+    <t>JOHN D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r175342136-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -876,6 +1014,9 @@
     <t>Difficult to find, as it sits behind a car dealer. Suspect clientele, woman in front of us walked in from main road and paid cash for one night. Gentleman in hallway to our room asked if he could bum a smoke. Friendly gentleman on the elevator, but I'm pretty sure he wasn't sober. Smoking rooms in center of corridor, non-smoking at ends, so you have to walk past the smoking rooms to get to non-smoking. Our room had two queen beds. One bed had sheets that were stained with what appeared to be blood and grease that had been laundered in. The box spring on the other bed had stains on the side of it that appeared to be bodily fluids of some sort. The towels might just as well have been paper towels. Water pressure in shower was nonexistent, couldn't rinse the shampoo out of our hair thoroughly. Packets (like a ketchup packet at McD's) of shampoo.  We were supposed to be there for a 3 night stay, checked out after the 1st night and found better accommodations elsewhere.The clerk at check-in made a photo copy of my drivers license and my credit card. I've been checking with my cc company to make sure no fraudulent use since.More</t>
   </si>
   <si>
+    <t>Anne-marie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r173563509-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -891,6 +1032,9 @@
     <t>Veena &amp; her husband (Max?) were friendly, helpful and keep the property very clean.  Also, the maid did whatever we needed.  We sold a home and werethere for a month waiting to get in our new house.</t>
   </si>
   <si>
+    <t>wonderchicken</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r172112193-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1059,9 @@
     <t>the potential is there. a couple of nice, but not too helpful folks at the desk until checkout when I noticed they had the wrong reservation number on my bill. I had showed the Priceline confirmation at check in and was assured the hotel would not charge me twice, despite the different reservation numbers. The next day the charges showed up pending. I called the Days Inn and was told they will not refund my money, despite being responsible for the error. I am still waiting to hear back from Priceline now that both charges have gone through. Won't stay here ever again. I am guessing the billing errors make up a good portion of their revenue.More</t>
   </si>
   <si>
+    <t>William W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r166670993-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1080,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>David S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r166446256-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -948,6 +1098,9 @@
     <t>Responded July 11, 2013</t>
   </si>
   <si>
+    <t>Chris S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r163967958-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -966,6 +1119,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>John T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r160214682-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1140,9 @@
     <t>Responded May 17, 2013</t>
   </si>
   <si>
+    <t>Dawna W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r160003832-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1161,9 @@
     <t>We checked in and the room was nice enough and pretty clean. We checked in and immediately got ready to go to bed.The next morning the kids and my boyfriend got ready to go to breakfast and I stayed behind to get ready. As he was leaving my boyfriend checked to make sure the lock had caught and it did not. After several attempts to lock the door, it would not work. I went downstairs and demanded a new room. After several condescending comments, the person at the desk assigned another room. This also required me having to insist that this be done. We loaded up all of stuff and went to the next room. This time we check the door and the same problem occurred. And then the desk guy had to come check for himself, like that is something anyone would make up. So after proving his rudeness and his complete ineptness at providing decent customer service, he moved us to yet another room. This one worked but for the toilet sticking and requiring my boyfriend to take the cover off and jiggle the handle. We decided to just suck it up and deal with it. I don't believe staying at a hotel should require anyone to "suck it up" because the staff makes it more of a hassle than just dealing with the problem yourself. Of course we did not feel completely safe while there. What a...We checked in and the room was nice enough and pretty clean. We checked in and immediately got ready to go to bed.The next morning the kids and my boyfriend got ready to go to breakfast and I stayed behind to get ready. As he was leaving my boyfriend checked to make sure the lock had caught and it did not. After several attempts to lock the door, it would not work. I went downstairs and demanded a new room. After several condescending comments, the person at the desk assigned another room. This also required me having to insist that this be done. We loaded up all of stuff and went to the next room. This time we check the door and the same problem occurred. And then the desk guy had to come check for himself, like that is something anyone would make up. So after proving his rudeness and his complete ineptness at providing decent customer service, he moved us to yet another room. This one worked but for the toilet sticking and requiring my boyfriend to take the cover off and jiggle the handle. We decided to just suck it up and deal with it. I don't believe staying at a hotel should require anyone to "suck it up" because the staff makes it more of a hassle than just dealing with the problem yourself. Of course we did not feel completely safe while there. What a huge hassle and disappointment. The Wyndham brand is really low on my new list of places I will even consider staying at in the future. More</t>
   </si>
   <si>
+    <t>Jennifer W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r157443805-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1185,9 @@
     <t>I had booked at another hotel and then changed to this one based on closeness to my grandmother's rehab center. This place still had a pool although outdoors, but my kids don't mind. Upon arrival we were greeted and assigned our room. They insisted on having a copy of my Drivers Licence and CC. I was told this was because the owner wanted to know who was in the room (they reluctantly gave it back on checkout). The room looked clean, but had a funny smell that we contributed to the remodeling they were doing. The bathtub had dead bugs in it, the rest of the bathroom looked dirty the floor was not mopped and the refrigerator had mold. Again maybe because the room had been unoccupied for an extended period of time. Why am i so positive? Then my son went to lay his head on the pillow only to have a spider run past his ear. I was done. I went to the front desk and asked for a different room. I was told they could move my family but they would charge us for an additional room. After a lot of discussion I suggested they just clean the room and we would keep it. The lady at the front desk insisted we move to a different room, "how fast do you think you can be out of the room? Just don't tell anyone. If anyone asks you...I had booked at another hotel and then changed to this one based on closeness to my grandmother's rehab center. This place still had a pool although outdoors, but my kids don't mind. Upon arrival we were greeted and assigned our room. They insisted on having a copy of my Drivers Licence and CC. I was told this was because the owner wanted to know who was in the room (they reluctantly gave it back on checkout). The room looked clean, but had a funny smell that we contributed to the remodeling they were doing. The bathtub had dead bugs in it, the rest of the bathroom looked dirty the floor was not mopped and the refrigerator had mold. Again maybe because the room had been unoccupied for an extended period of time. Why am i so positive? Then my son went to lay his head on the pillow only to have a spider run past his ear. I was done. I went to the front desk and asked for a different room. I was told they could move my family but they would charge us for an additional room. After a lot of discussion I suggested they just clean the room and we would keep it. The lady at the front desk insisted we move to a different room, "how fast do you think you can be out of the room? Just don't tell anyone. If anyone asks you have only ever been in the second room." She showed me 3 different rooms on the second floor. We took the third. My 3 year old went to use the bathroom and the toilet wouldn't flush. I opened the tank and sure enough the flapper puller was broken. I went back down and talked to the front desk lady who told me that because we had touched something in the room they would have to charge us another room fee. Again I refused reminding her the toilet was BROKEN!! By this time the housekeeper had left the original room and were we're again told not to tell anyone we were in the second room and moved back to the first. It was cleaner and the 3 things I asked them to fix we're fixed, still mold on ceiling and a squished bug on the bathroom. After an hour we were finally checked into the room we would be staying in. We did not use the outdoor pool due to the weather, but it was in poor repair and I would not have had my kids in it anyway. Breakfast? Not really. The donuts were so dry they must have been AT LEAST a day old and left uncovered. They chipped when I tapped the top and my 7 and 9 year olds would not even eat the ones they took. I had a cup of milk and my husband took an apple for the road. Never again! More</t>
   </si>
   <si>
+    <t>SalandMonica</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r154332947-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1209,9 @@
     <t>Dear husband and I travel frequently to Plano, Tx to do our shopping. The drive is 3 hours one way so we sleep over in Plano. This time we decided we would wing it and find a hotel when we got there. We saw the sign for Days Inn from Preston Rd and decided we would pull in and check room rates and availability. After driving in circles a few times trying to find the right road to get to the hotel we finally arrived. The man at the front desk was very nice and gave us a suite with a queen size bed for 59.99... The price was great, now to see the room. The room was large and very nice for the price. The bathroom was clean, the bed was ok---could have used a few more pillows...The carpets were clean, the internet was great, the channels on the television were fine. Overall---if you are looking for a inexpensive place to stay---this is the place. Clean, friendly and a great location! More</t>
   </si>
   <si>
+    <t>45StacieS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r152811962-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1239,9 @@
     <t>OMG...this was a terrible humiliating experience! 1st, the hotel is very hard to find located behind some buildings...drove in circles looking for entrance. We were there on business for 5 nights. The flu was going around something fierce in the Dallas area, which of course my husband and I caught. We did not leave our room for over 3 days..company was paying for room. Here's the worst part, after being there and finally stopped hallucinating from fever, our company forgot to make a payment. I understand there point that we had to leave if they couldn't reach the company...however the minute my husband left to go buy medicine, management pounced and locked me out of the room in the a.m. before checkout time. I couldn't retrieve my purse, phone, not even my shoes. Barefoot in pajamas and sick sitting in lobby for all to view. Poster child of sickness. It was humiliating. I was so thankful when my husband pulled into the lot and I ran for cover to our car and let him deal with the front desk manager and gather are belongings. Also let them know our room needed to be fumigated before allowing another guest in it. I was horrified when I saw they cleaned in about 15 minutes and checked in a poor unsuspecting guest. Never ever again. Oh, and the company spends quite a bit of money there and they acted as if they had...OMG...this was a terrible humiliating experience! 1st, the hotel is very hard to find located behind some buildings...drove in circles looking for entrance. We were there on business for 5 nights. The flu was going around something fierce in the Dallas area, which of course my husband and I caught. We did not leave our room for over 3 days..company was paying for room. Here's the worst part, after being there and finally stopped hallucinating from fever, our company forgot to make a payment. I understand there point that we had to leave if they couldn't reach the company...however the minute my husband left to go buy medicine, management pounced and locked me out of the room in the a.m. before checkout time. I couldn't retrieve my purse, phone, not even my shoes. Barefoot in pajamas and sick sitting in lobby for all to view. Poster child of sickness. It was humiliating. I was so thankful when my husband pulled into the lot and I ran for cover to our car and let him deal with the front desk manager and gather are belongings. Also let them know our room needed to be fumigated before allowing another guest in it. I was horrified when I saw they cleaned in about 15 minutes and checked in a poor unsuspecting guest. Never ever again. Oh, and the company spends quite a bit of money there and they acted as if they had no idea who they were. Customer service was rank and ruined what might have been a decent place. One more thing the pipes were embedded by tree roots so it/water had a funky smell and I don't believe you could open the windows.More</t>
   </si>
   <si>
+    <t>Ruth V P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r152787155-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1257,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Dave S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r150301907-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1275,9 @@
     <t>The hotel was clean and the staff were friendly and helpful. Only problem was locating it, since it's behind a car dealership and has no signage on the road where the driveway is due to some city rule. Once that's resolved, it's a nice place at which we'll likely stay again.</t>
   </si>
   <si>
+    <t>HANNAH D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r149837909-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1290,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Annettem P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r149451292-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1302,9 @@
     <t>01/11/2013</t>
   </si>
   <si>
+    <t>PALANIVEL R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r145697238-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1317,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>BENGLouisiana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r144882365-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1149,6 +1335,9 @@
     <t>I booked this stay online at the Days Inn website. The price advertised was the price I paid. No Hidden Expenses, No Gimmicks. Room was clean, Bathooom was clean and my only complaint was that I couldn't get all the local channels on the "old Tv" to come in. However, I would stay here again based on the location and friendly staff I encountered during my stay. Not bad to two nights in Dallas for under $100.</t>
   </si>
   <si>
+    <t>KA-SC1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r143859745-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1167,6 +1356,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>ASHLEY K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r142427913-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1185,6 +1377,9 @@
     <t>This hotel was ok. I was just going into town for the weekend, wasn't going to be spending much time at the hotel, so we just wanted something inexpensive. Online, I was told this hotel was $55 per night which didn't sound bad. I called to ask if they allowed dogs and they said yes, that was fine. Then, when I arrived, I saw a huge sign saying no pets allowed. I asked, and was told I could but it would be $10/night. I agreed and then she asked if it was a big dog (which it was) so she then charged me $15/night. After it was all said and done, I ended up paying $80/night for this hotel. This was DEFINITELY NOT an $80/night hotel. It served its purpose but I could've paid much less for better quality. The remote didn't work and only half of the t.v. channels came in. The towels were tiny, the lady at check in had no idea how to run my credit card.More</t>
   </si>
   <si>
+    <t>William P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r142087966-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1398,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>John R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r141789661-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1218,6 +1416,9 @@
     <t>Stayed at this hotel for business.  The rooms are spacious, clean and the beds are very comfortable.  The property is conveniently located off a toll road and there are lots of restaurants close by.  Staff was friendly and helpful.</t>
   </si>
   <si>
+    <t>hanger42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r129919854-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1234,6 +1435,9 @@
   </si>
   <si>
     <t>When I called 3 days prior to get a first floor room. I was greeted on the phone by someone who could not speak English :-( C'Mon people WE ARE IN AMERICA!!! especially if you "live" here, you should speak the language..   So Finally I arrive, The building has NO AC running, or it was set to Dessert!    I had forgotten my combs at the house :-( I go down stairs to ask the desk...  "NO WE DON'T HAVE ANY" wow I am surprised I got shampoo or soap.  Oh, then I get up to the room, the coffee pot has OLD used packet of coffee in the filter and the coffee packet I wanted to use is EMPTY.The first night there I went and got fried chicken, YUM! There were crumbs on the floor when I was done, they stayed on the floor the ENTIRE week I stayed there... DID not even bother to investigate anything else..  just did my time on the project and will NEVER return to DAYS INN!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>AKtraveler69</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r128157712-Sunstone_Inn-Dallas_Texas.html</t>
@@ -1265,6 +1469,9 @@
 So as you drive down and again its behind two...First thing, if you want a good laugh google their address and look on the map to see where it is located.  If you look at the map the address shows right there by the street but if you look closer you will see the hotel is back away.  Like in behind 2 other business.  As you take a cab to the hotel, they don't offer a shuttle at all, nor did they say how far away from the airport they are.  You drive down the turnpike, and maybe if your lucky you might notice he sign for the hotel.  So then you turn onto Preston, following google and you drive right by the hotel.  You drive by several times, and can't find the hotel.  So you call agian, and get directions, they are not very clear either time you call.  finally on the third call you get better directions.  So you notice, when you drive slowly by, that yes they do have a sign but the front of the road, but its a sign the size of a for sale sign with arrows pointing back.  The first sign you notice is the Silver Stars Auto, and you see the dealership. What the hotel staff never ever mentioned was that there is a smaller road off to the side where you have to drive down to get to the hotel.So as you drive down and again its behind two other business.  You pass the dealership and a storage unit then you see the hotel.  As you pull in, right there by the front door is the small swimming pool, with no privacy whats ever.  So anyone wlaking by or driving by will see you.  So then after getting there, the front desk staff member, says something about the city not letting them put up better signs due to some issue.  He asks if I have a reservation and I say yes, let me grab my reservation number.  "Just give me your card, I don't need your reservation I just need your card".  mind you never a smile or how are you doing or anything.  I then check in, he then asks do you want to upgrade to a suite for $5 more a day? I was like sure what's in a suite?  Fridge, microwave and stuff.  So yeah I was like sweet nice deal.  I get to my room and wow, I reall have to wonder what a normal room looks like, cause the room was small, no dishes no cups nothing, just a small fridge, a microwave, sink, couch, tv ( that really looked like it was gonna fall off the closest at any moment) bed and a desk.  My room back home is bigger than this suite.I go back down and ask about rental cars, and the staff member is like you want to call someone.  I ask well do you happen to have a number or someone you might recomend, and he gives me Enterprise, and mind you thats another can of worms you dont want me to open.  Then I go back to my room and I look for the ice machine.  They have 2, one on the first floor and the third floor, on the second floor, was a pop machine, that was out of order the entire time I was there.  Mind you I was there for 11 days.  Also the vending machine on the first floor was empty the entire time.they do have a business center, like all Days Inn's do, and I have stayed at a few before so I knew what I was expecting, not what I was getting.  So I go down to use the printer, I needed to print something off and then fax.  So I go down to the office and there is a printer/copier/fax machine in the room, with a computer with very slow connection, and a single fan.  I ask the front desk clerk about the printing, because it didn't print.  I had figured it would go to the front desk so they can be sure to collect the funds.  Mind you in the room there is a page i their binder that says, printing/copy $.25 a page and fax service $.50 per sheet.  So the clerk says, "we don't have printing service"  So I go back into the business center and handwrite my letter to fax.  Again nothing is working, so I go back and ask about faxing.  "We don't fax either, its not connected, we only have one line and its for the computer"  Or if you ask them a question, they will respond with "why do you need/want that".  My answer is simple, because I do, why does it matter why or want or need something?  Then on the phone it says, Long Distance calls, you can get a calling card at the front desk.  So I go down and ask about one, and imigane my surprise when he says " you have to go out for one, we don't sell them"  I explained that on the phone it says you can get them down here, and his responce again "we don't do that, its just a mess, you have to go out and get one"Then you just have to love this next bit.  Safety.  You would think would be a good reason to stay at a hotel.  Well if you agree then never stay here.  The time I was down in Dallas, we had some tornado's happen. Mind you not one but 12 of them.  You would really think, that when your at a hotel, and you have guests that are from out of state, that when you have something like that happeing, and you have the sirens going off, that you would somehow make it known to all your guests in the hotel, that something is going on.  I am from Alaska, and we don't get anything like them at all.  So when the sirens were going off, I had just thought that there was some accident or some cop or something lost in the neighborhood.  I was just watchig tv show.  was not till later when I had gone down to the front desk to get some ice, and I had asked what was up with the sirens, was then told about what had happened.  One of them was about not even 10 miles from the hotel I later found out from watching the news.So all while, I had lost my wallet and cell phone.  Had everything replaced.  So with the tornado's giong on and my friends back home hearing about everything and worring about me since I couldn't get ahold of them.  They called the hotel and the front desk wouldn't patch them through to me.  I finally checked my email and was told to call and check in.  My friend had said the lady at the front desk was rude and wouldn't patch her through and then hung up on her.So after a few days I go down to the front desk to check on my phone.  The front desk lady said no nothing was deleivered.  I asked her about the box on the floor right behind her.  She grabs it and says"not for you, your not the days inn" then asks for my room number and says "again no not for you, a different room".  I go check my email and it showed it was deleivered.  I go back and ask yet another front desk clerk and he says "whats your room number, and yes this is for you"  I look at it and yes it does say Days Inn, because that is where I am staying but also it has my name and room number, yes the name was spelled wrong but the lady just didnt want to pay attention.  All she read was Days Inn, and didn't bother to read the rest.  then nothing not even I am sorry or anything, just walked away.So all in all, I highly suggest that you never stay here.  The entire time I was there, I hardler ever say anyone really.  Oh yeah and then at check out, they say 11am.  They mean 11 am, no late check out, and if you have anything in your room thats trash, and you let them know its trash and they even say that they will toss if for you, they don't and wont, unless they charge you like $30.00 per bag.  Mind you I had some extra stuff since I had emptied my storage unit.  I asked them if they wouldn't mind doing it for me, because while I was down there I happened to sprian my ankle.  So the day of check out, yet another guy at the front desk, tells me I have to toss it myself, no matter what, otherwise they will charge me a nice fine for doing it.  I explained what I was told, and his words were, "You lie no one would ever say yes to you"I am sorry but that was the last straw, no one tells me I lied or calls me a liar, no one.  So I walked back upstairs after grabbing the bag rack and took the stuff out to the trash myself.  I also noticed that when it was after 11am, just a few mins, like 11:05 am, the one guy from the front desk was pounding on the door of one guest hat was to check out and was louding saying he needed to check out now, otherwise he would have to pay a fee of $10 for every few minutes or something riduclus like that.More</t>
   </si>
   <si>
+    <t>Value4Money_21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r127640264-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1283,6 +1490,9 @@
     <t>I have been staying in Days Inn for last 5 years, wherever i go either business trip or personal vacation i try to find Days Inn hotel as i am Wyndham Rewards member and Days Inn was the one who started Complimentary Breakfast.But this property management is really rude and don't ever give your credit card details to them they can commit to fraud by putting extra dollars on your bill after you leave the property. Worst breakfast i have even seen, mixed water in regular juice, dated bed sheets, towels and interiors.Staff in front desk is the worst and they don't have any respect towards customers, they can torture you like anything. I gave 1 star because that is the least i can give(no option for negative rating here).More</t>
   </si>
   <si>
+    <t>Mytzi T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r119112307-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1310,6 +1520,9 @@
     <t>We were supposed to be stayiing here for 3 nights and couldn't even make it that long. First day we got there the staff was rude upon checking in and then again when we let them know the remote was missing from the room. After leaving the hotel for a few hours we returned to find our TV was missing because they couldn't find the remote?!?! They moved us into a different room only to find MOUSE DROPPINGS when I pulled back my sheets. I called down to the front desk and told them the situation and asked for new sheets to which they told me I had to go down and get them myself and MAKE MY OWN BED. I refuse to stay another night. Please DO NOT STAY HERE it is a WASTE OF MONEY!More</t>
   </si>
   <si>
+    <t>AnnnnnG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r118913918-Sunstone_Inn-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1323,6 +1536,9 @@
   </si>
   <si>
     <t>This is the sort of place that you stay at because you have to, not because you choose to.  The staff weren't particularly welcoming upon my check in.  I had to pay extra for a non-smoking room. The decor in the room was dated.  Found a dead cricket in my room and some live insects in the bathroom.  This place just feels depressing.  On the plus side, free WIFI and cheap room rates.I wouldn't stay here again.  I would rather pay more money and stay somewhere nicer.</t>
+  </si>
+  <si>
+    <t>SoupJoe</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1176822-r53026816-Sunstone_Inn-Dallas_Texas.html</t>
@@ -1848,43 +2064,47 @@
       <c r="A2" t="n">
         <v>40784</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>6275</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1908,50 +2128,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>40784</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>179942</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -1971,50 +2195,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>40784</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>179943</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2028,50 +2256,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>40784</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>179944</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2095,50 +2327,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>40784</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>179945</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -2162,50 +2398,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>40784</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>179946</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -2229,50 +2469,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>40784</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>20962</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -2296,50 +2540,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>40784</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>179947</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2363,50 +2611,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>40784</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>179948</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>97</v>
       </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>90</v>
-      </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2424,50 +2676,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>40784</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>179949</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2491,50 +2747,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>40784</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>179950</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -2558,35 +2818,39 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>40784</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>179951</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -2594,10 +2858,10 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2618,51 +2882,52 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>40784</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>179952</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2686,48 +2951,52 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>40784</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>4542</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2751,50 +3020,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>40784</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>179953</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2818,50 +3091,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>40784</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>179954</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2875,50 +3152,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>40784</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>44176</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2942,48 +3223,52 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>40784</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>179955</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3007,48 +3292,52 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>40784</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>179956</v>
+      </c>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3072,50 +3361,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>40784</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>179957</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -3139,50 +3432,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>40784</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>179958</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="K22" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="O22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -3206,50 +3503,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>40784</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>37783</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="J23" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3273,50 +3574,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>40784</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>48726</v>
+      </c>
+      <c r="C24" t="s">
+        <v>191</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="J24" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="K24" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3340,50 +3645,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>40784</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>197</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="J25" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="O25" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3407,35 +3716,39 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>40784</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>179959</v>
+      </c>
+      <c r="C26" t="s">
+        <v>203</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -3443,10 +3756,10 @@
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3467,51 +3780,52 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>40784</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>89417</v>
+      </c>
+      <c r="C27" t="s">
+        <v>208</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="J27" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="K27" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="O27" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3535,50 +3849,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>40784</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>179960</v>
+      </c>
+      <c r="C28" t="s">
+        <v>214</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="J28" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3602,50 +3920,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>40784</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>179961</v>
+      </c>
+      <c r="C29" t="s">
+        <v>219</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="J29" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="O29" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3665,50 +3987,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>40784</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C30" t="s">
+        <v>225</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="J30" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3732,48 +4058,52 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>40784</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>18665</v>
+      </c>
+      <c r="C31" t="s">
+        <v>232</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="J31" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3797,35 +4127,39 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>40784</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>3949</v>
+      </c>
+      <c r="C32" t="s">
+        <v>236</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="J32" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
@@ -3833,10 +4167,10 @@
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3857,51 +4191,52 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>40784</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>179962</v>
+      </c>
+      <c r="C33" t="s">
+        <v>241</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="J33" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="K33" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="O33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -3925,50 +4260,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>40784</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>179963</v>
+      </c>
+      <c r="C34" t="s">
+        <v>248</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="J34" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="K34" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="O34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -3988,50 +4327,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>40784</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>9190</v>
+      </c>
+      <c r="C35" t="s">
+        <v>256</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="J35" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="K35" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="L35" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4055,35 +4398,39 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>40784</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>1903</v>
+      </c>
+      <c r="C36" t="s">
+        <v>262</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="J36" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -4091,10 +4438,10 @@
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4115,49 +4462,50 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>40784</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>179964</v>
+      </c>
+      <c r="C37" t="s">
+        <v>266</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="J37" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="O37" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4181,50 +4529,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>40784</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>30085</v>
+      </c>
+      <c r="C38" t="s">
+        <v>270</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="J38" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="K38" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="L38" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="O38" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4248,35 +4600,39 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>40784</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>22786</v>
+      </c>
+      <c r="C39" t="s">
+        <v>278</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="J39" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4284,10 +4640,10 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="O39" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -4308,51 +4664,52 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>40784</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>1341</v>
+      </c>
+      <c r="C40" t="s">
+        <v>282</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="J40" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="K40" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="L40" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4376,35 +4733,39 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>40784</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>1369</v>
+      </c>
+      <c r="C41" t="s">
+        <v>289</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="J41" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4412,10 +4773,10 @@
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="O41" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4426,42 +4787,43 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>40784</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>179965</v>
+      </c>
+      <c r="C42" t="s">
+        <v>294</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="J42" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="K42" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
@@ -4490,50 +4852,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>40784</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>179966</v>
+      </c>
+      <c r="C43" t="s">
+        <v>300</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="J43" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="K43" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="O43" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4557,50 +4923,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>40784</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>8071</v>
+      </c>
+      <c r="C44" t="s">
+        <v>307</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="J44" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="L44" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="O44" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -4624,35 +4994,39 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>40784</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>53787</v>
+      </c>
+      <c r="C45" t="s">
+        <v>314</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="J45" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -4660,10 +5034,10 @@
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="O45" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4684,51 +5058,52 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>40784</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>12546</v>
+      </c>
+      <c r="C46" t="s">
+        <v>318</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="J46" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="K46" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="L46" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="O46" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -4752,50 +5127,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>40784</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>179967</v>
+      </c>
+      <c r="C47" t="s">
+        <v>324</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="J47" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="K47" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="O47" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4819,50 +5198,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>40784</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>179968</v>
+      </c>
+      <c r="C48" t="s">
+        <v>332</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="J48" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="K48" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="L48" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="O48" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4886,50 +5269,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>40784</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>179969</v>
+      </c>
+      <c r="C49" t="s">
+        <v>338</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="J49" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="K49" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="L49" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -4951,56 +5338,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="X49" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="Y49" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>40784</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>333</v>
+      </c>
+      <c r="C50" t="s">
+        <v>347</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="J50" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="K50" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="L50" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="O50" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5024,48 +5415,52 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>40784</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>1826</v>
+      </c>
+      <c r="C51" t="s">
+        <v>354</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J51" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -5087,56 +5482,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="X51" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="Y51" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>40784</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>1652</v>
+      </c>
+      <c r="C52" t="s">
+        <v>360</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="J52" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="K52" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5160,48 +5559,52 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>40784</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C53" t="s">
+        <v>367</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="J53" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="O53" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5223,56 +5626,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="X53" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="Y53" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>40784</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>179970</v>
+      </c>
+      <c r="C54" t="s">
+        <v>374</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>322</v>
+        <v>375</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>323</v>
+        <v>376</v>
       </c>
       <c r="J54" t="s">
-        <v>324</v>
+        <v>377</v>
       </c>
       <c r="K54" t="s">
-        <v>325</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="O54" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5296,50 +5703,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>40784</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>6764</v>
+      </c>
+      <c r="C55" t="s">
+        <v>381</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="J55" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="K55" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="L55" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="O55" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P55" t="n">
         <v>2</v>
@@ -5363,50 +5774,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>40784</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>179971</v>
+      </c>
+      <c r="C56" t="s">
+        <v>389</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="J56" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="K56" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="L56" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
       <c r="O56" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5430,50 +5845,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>341</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>40784</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>179972</v>
+      </c>
+      <c r="C57" t="s">
+        <v>397</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="J57" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="K57" t="s">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="L57" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -5495,56 +5914,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="X57" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="Y57" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>40784</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>179973</v>
+      </c>
+      <c r="C58" t="s">
+        <v>407</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="J58" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="K58" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="L58" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="O58" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5568,50 +5991,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>40784</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>14679</v>
+      </c>
+      <c r="C59" t="s">
+        <v>413</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
       <c r="J59" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="K59" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="L59" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="O59" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5635,48 +6062,52 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>40784</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>179974</v>
+      </c>
+      <c r="C60" t="s">
+        <v>419</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>361</v>
+        <v>420</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
       <c r="J60" t="s">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="O60" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -5700,35 +6131,39 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>40784</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>179975</v>
+      </c>
+      <c r="C61" t="s">
+        <v>424</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>365</v>
+        <v>425</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>366</v>
+        <v>426</v>
       </c>
       <c r="J61" t="s">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -5736,10 +6171,10 @@
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="O61" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -5758,36 +6193,37 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>40784</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>179976</v>
+      </c>
+      <c r="C62" t="s">
+        <v>428</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>368</v>
+        <v>429</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="J62" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
@@ -5795,10 +6231,10 @@
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="O62" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -5817,51 +6253,52 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>40784</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>179977</v>
+      </c>
+      <c r="C63" t="s">
+        <v>433</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>372</v>
+        <v>434</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="J63" t="s">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="K63" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="L63" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="O63" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5885,50 +6322,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>40784</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>179978</v>
+      </c>
+      <c r="C64" t="s">
+        <v>439</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="J64" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="K64" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="L64" t="s">
-        <v>381</v>
+        <v>444</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -5952,50 +6393,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>381</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>40784</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>179979</v>
+      </c>
+      <c r="C65" t="s">
+        <v>446</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>383</v>
+        <v>447</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="J65" t="s">
-        <v>385</v>
+        <v>449</v>
       </c>
       <c r="K65" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="L65" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="O65" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -6019,50 +6464,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>388</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>40784</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>1463</v>
+      </c>
+      <c r="C66" t="s">
+        <v>453</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>389</v>
+        <v>454</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>390</v>
+        <v>455</v>
       </c>
       <c r="J66" t="s">
-        <v>391</v>
+        <v>456</v>
       </c>
       <c r="K66" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="L66" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="O66" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6086,50 +6535,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>40784</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C67" t="s">
+        <v>460</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="J67" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="K67" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="L67" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6153,50 +6606,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>40784</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>179980</v>
+      </c>
+      <c r="C68" t="s">
+        <v>466</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>401</v>
+        <v>468</v>
       </c>
       <c r="J68" t="s">
-        <v>402</v>
+        <v>469</v>
       </c>
       <c r="K68" t="s">
-        <v>403</v>
+        <v>470</v>
       </c>
       <c r="L68" t="s">
-        <v>404</v>
+        <v>471</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -6220,50 +6677,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>405</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>40784</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>179981</v>
+      </c>
+      <c r="C69" t="s">
+        <v>473</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>406</v>
+        <v>474</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="J69" t="s">
-        <v>408</v>
+        <v>476</v>
       </c>
       <c r="K69" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="L69" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="O69" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P69" t="n">
         <v>1</v>
@@ -6285,56 +6746,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="X69" t="s">
-        <v>413</v>
+        <v>481</v>
       </c>
       <c r="Y69" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>40784</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>179982</v>
+      </c>
+      <c r="C70" t="s">
+        <v>483</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>415</v>
+        <v>484</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="J70" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="K70" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="L70" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="O70" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -6358,50 +6823,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>420</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>40784</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>179983</v>
+      </c>
+      <c r="C71" t="s">
+        <v>490</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>421</v>
+        <v>491</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>422</v>
+        <v>492</v>
       </c>
       <c r="J71" t="s">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="K71" t="s">
-        <v>424</v>
+        <v>494</v>
       </c>
       <c r="L71" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="O71" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
@@ -6423,56 +6892,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>427</v>
+        <v>497</v>
       </c>
       <c r="X71" t="s">
-        <v>428</v>
+        <v>498</v>
       </c>
       <c r="Y71" t="s">
-        <v>429</v>
+        <v>499</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>40784</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>179984</v>
+      </c>
+      <c r="C72" t="s">
+        <v>500</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>430</v>
+        <v>501</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="J72" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="K72" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
       <c r="L72" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="O72" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -6496,50 +6969,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>40784</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>179985</v>
+      </c>
+      <c r="C73" t="s">
+        <v>506</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>436</v>
+        <v>508</v>
       </c>
       <c r="J73" t="s">
-        <v>437</v>
+        <v>509</v>
       </c>
       <c r="K73" t="s">
-        <v>438</v>
+        <v>510</v>
       </c>
       <c r="L73" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>440</v>
+        <v>512</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -6561,13 +7038,13 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>427</v>
+        <v>497</v>
       </c>
       <c r="X73" t="s">
-        <v>428</v>
+        <v>498</v>
       </c>
       <c r="Y73" t="s">
-        <v>441</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
